--- a/2024/tmp/CCA Junior League 2 South.xlsx
+++ b/2024/tmp/CCA Junior League 2 South.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="141" count="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="142" count="142">
   <si>
     <t>Division</t>
   </si>
@@ -49,115 +49,169 @@
     <t>117767</t>
   </si>
   <si>
+    <t>Fulbourn Institute CC - 1st XI</t>
+  </si>
+  <si>
+    <t>32550</t>
+  </si>
+  <si>
+    <t>City of Ely CC - 1st XI</t>
+  </si>
+  <si>
+    <t>23142</t>
+  </si>
+  <si>
+    <t>Fulbourn Recreation Ground</t>
+  </si>
+  <si>
+    <t>9770</t>
+  </si>
+  <si>
+    <t>2024/08/10</t>
+  </si>
+  <si>
+    <t>13:00</t>
+  </si>
+  <si>
+    <t>Thriplow CC - 1st XI</t>
+  </si>
+  <si>
+    <t>51520</t>
+  </si>
+  <si>
+    <t>2024/08/03</t>
+  </si>
+  <si>
+    <t>Horseheath CC - 1st XI</t>
+  </si>
+  <si>
+    <t>134360</t>
+  </si>
+  <si>
+    <t>2024/07/20</t>
+  </si>
+  <si>
+    <t>Longstanton Grasshoppers CC - 1st XI</t>
+  </si>
+  <si>
+    <t>12244</t>
+  </si>
+  <si>
+    <t>2024/05/04</t>
+  </si>
+  <si>
+    <t>Wisbech Town CC - 2nd XI</t>
+  </si>
+  <si>
+    <t>14510</t>
+  </si>
+  <si>
+    <t>2024/06/08</t>
+  </si>
+  <si>
+    <t>Ramsey CC, Hunts - 2nd XI</t>
+  </si>
+  <si>
+    <t>78071</t>
+  </si>
+  <si>
+    <t>2024/08/17</t>
+  </si>
+  <si>
     <t>Bluntisham CC - 1st XI</t>
   </si>
   <si>
     <t>41728</t>
   </si>
   <si>
+    <t>2024/06/15</t>
+  </si>
+  <si>
     <t>Abington CC, Cambs - 1st XI</t>
   </si>
   <si>
     <t>29732</t>
   </si>
   <si>
+    <t>2024/07/06</t>
+  </si>
+  <si>
+    <t>Wilburton CC - 1st XI</t>
+  </si>
+  <si>
+    <t>60408</t>
+  </si>
+  <si>
+    <t>2024/06/22</t>
+  </si>
+  <si>
+    <t>Longstanton Recreation Ground</t>
+  </si>
+  <si>
+    <t>12312</t>
+  </si>
+  <si>
+    <t>2024/05/18</t>
+  </si>
+  <si>
+    <t>2024/07/13</t>
+  </si>
+  <si>
+    <t>2024/05/25</t>
+  </si>
+  <si>
+    <t>2024/05/11</t>
+  </si>
+  <si>
+    <t>The Cricketfield</t>
+  </si>
+  <si>
+    <t>14834</t>
+  </si>
+  <si>
+    <t>2024/06/01</t>
+  </si>
+  <si>
+    <t>2024/04/27</t>
+  </si>
+  <si>
+    <t>Wisbech Town CC</t>
+  </si>
+  <si>
+    <t>11646</t>
+  </si>
+  <si>
+    <t>2024/06/29</t>
+  </si>
+  <si>
+    <t>2024/08/24</t>
+  </si>
+  <si>
+    <t>Abington Cricket Ground</t>
+  </si>
+  <si>
+    <t>13558</t>
+  </si>
+  <si>
+    <t>2024/07/27</t>
+  </si>
+  <si>
     <t>Bluntisham Recreation Ground</t>
   </si>
   <si>
     <t>13076</t>
   </si>
   <si>
-    <t>2024/08/10</t>
-  </si>
-  <si>
-    <t>13:00</t>
-  </si>
-  <si>
-    <t>Ramsey CC, Hunts - 2nd XI</t>
-  </si>
-  <si>
-    <t>78071</t>
-  </si>
-  <si>
-    <t>2024/06/29</t>
-  </si>
-  <si>
-    <t>Horseheath CC - 1st XI</t>
-  </si>
-  <si>
-    <t>134360</t>
-  </si>
-  <si>
-    <t>2024/08/03</t>
-  </si>
-  <si>
-    <t>Longstanton Grasshoppers CC - 1st XI</t>
-  </si>
-  <si>
-    <t>12244</t>
-  </si>
-  <si>
-    <t>2024/05/04</t>
-  </si>
-  <si>
-    <t>Fulbourn Institute CC - 1st XI</t>
-  </si>
-  <si>
-    <t>32550</t>
-  </si>
-  <si>
-    <t>2024/07/20</t>
-  </si>
-  <si>
-    <t>Thriplow CC - 1st XI</t>
-  </si>
-  <si>
-    <t>51520</t>
-  </si>
-  <si>
-    <t>2024/05/11</t>
-  </si>
-  <si>
-    <t>Wilburton CC - 1st XI</t>
-  </si>
-  <si>
-    <t>60408</t>
-  </si>
-  <si>
-    <t>2024/06/22</t>
-  </si>
-  <si>
-    <t>City of Ely CC - 1st XI</t>
-  </si>
-  <si>
-    <t>23142</t>
-  </si>
-  <si>
-    <t>2024/07/27</t>
-  </si>
-  <si>
-    <t>Wisbech Town CC - 2nd XI</t>
-  </si>
-  <si>
-    <t>14510</t>
-  </si>
-  <si>
-    <t>2024/06/08</t>
-  </si>
-  <si>
-    <t>Fulbourn Recreation Ground</t>
-  </si>
-  <si>
-    <t>9770</t>
-  </si>
-  <si>
     <t>2024/08/31</t>
   </si>
   <si>
-    <t>2024/06/01</t>
-  </si>
-  <si>
-    <t>2024/07/13</t>
+    <t>Thriplow</t>
+  </si>
+  <si>
+    <t>4585</t>
+  </si>
+  <si>
+    <t>The Cricket Meadow, Howards Lane</t>
   </si>
   <si>
     <t>The Paradise Centre</t>
@@ -166,136 +220,106 @@
     <t>25056</t>
   </si>
   <si>
-    <t>2024/06/15</t>
-  </si>
-  <si>
-    <t>2024/05/18</t>
-  </si>
-  <si>
-    <t>2024/07/06</t>
-  </si>
-  <si>
-    <t>2024/05/25</t>
-  </si>
-  <si>
     <t>The Piece Ground</t>
   </si>
   <si>
     <t>2191</t>
   </si>
   <si>
-    <t>2024/08/17</t>
-  </si>
-  <si>
-    <t>2024/08/24</t>
-  </si>
-  <si>
-    <t>The Cricket Meadow, Howards Lane</t>
-  </si>
-  <si>
-    <t>Thriplow</t>
-  </si>
-  <si>
-    <t>4585</t>
-  </si>
-  <si>
-    <t>Wisbech Town CC</t>
-  </si>
-  <si>
-    <t>11646</t>
-  </si>
-  <si>
-    <t>Abington Cricket Ground</t>
-  </si>
-  <si>
-    <t>13558</t>
-  </si>
-  <si>
-    <t>The Cricketfield</t>
-  </si>
-  <si>
-    <t>14834</t>
-  </si>
-  <si>
-    <t>2024/04/27</t>
-  </si>
-  <si>
-    <t>Longstanton Recreation Ground</t>
-  </si>
-  <si>
-    <t>12312</t>
-  </si>
-  <si>
     <t>CCA Junior League 4 South</t>
   </si>
   <si>
     <t>117812</t>
   </si>
   <si>
+    <t>Birchanger CC - 2nd XI</t>
+  </si>
+  <si>
+    <t>71201</t>
+  </si>
+  <si>
+    <t>Abington CC, Cambs - 2nd XI</t>
+  </si>
+  <si>
+    <t>29686</t>
+  </si>
+  <si>
+    <t>Birchanger Sports - Social Club</t>
+  </si>
+  <si>
+    <t>Linton Village CC - 2nd XI</t>
+  </si>
+  <si>
+    <t>10414</t>
+  </si>
+  <si>
     <t>Cambridge NCI CC - 4th XI</t>
   </si>
   <si>
     <t>56245</t>
   </si>
   <si>
+    <t>Elmdon CC - 2nd XI</t>
+  </si>
+  <si>
+    <t>51839</t>
+  </si>
+  <si>
     <t>Ickleton CC - 2nd XI</t>
   </si>
   <si>
     <t>239150</t>
   </si>
   <si>
+    <t>Newton CC, Cambs - 1st XI</t>
+  </si>
+  <si>
+    <t>51240</t>
+  </si>
+  <si>
+    <t>Newport CC, Essex - 2nd XI</t>
+  </si>
+  <si>
+    <t>48329</t>
+  </si>
+  <si>
+    <t>Buntingford CC - 2nd XI</t>
+  </si>
+  <si>
+    <t>134497</t>
+  </si>
+  <si>
+    <t>Frambury Lane, Newport</t>
+  </si>
+  <si>
+    <t>The Meadow</t>
+  </si>
+  <si>
+    <t>2714</t>
+  </si>
+  <si>
     <t>Parkers Piece</t>
   </si>
   <si>
     <t>11904</t>
   </si>
   <si>
-    <t>Linton Village CC - 2nd XI</t>
-  </si>
-  <si>
-    <t>10414</t>
-  </si>
-  <si>
-    <t>Birchanger CC - 2nd XI</t>
-  </si>
-  <si>
-    <t>71201</t>
-  </si>
-  <si>
-    <t>Elmdon CC - 2nd XI</t>
-  </si>
-  <si>
-    <t>51839</t>
-  </si>
-  <si>
-    <t>Abington CC, Cambs - 2nd XI</t>
-  </si>
-  <si>
-    <t>29686</t>
-  </si>
-  <si>
-    <t>Buntingford CC - 2nd XI</t>
-  </si>
-  <si>
-    <t>134497</t>
-  </si>
-  <si>
-    <t>Newport CC, Essex - 2nd XI</t>
-  </si>
-  <si>
-    <t>48329</t>
-  </si>
-  <si>
-    <t>Newton CC, Cambs - 1st XI</t>
-  </si>
-  <si>
-    <t>51240</t>
-  </si>
-  <si>
-    <t>Birchanger Sports - Social Club</t>
-  </si>
-  <si>
-    <t>Frambury Lane, Newport</t>
+    <t>Newton CC</t>
+  </si>
+  <si>
+    <t>32992</t>
+  </si>
+  <si>
+    <t>Norfolk Rd Playing Field, Bowling Green</t>
+  </si>
+  <si>
+    <t>Linton Recreation Ground</t>
+  </si>
+  <si>
+    <t>5934</t>
+  </si>
+  <si>
+    <t>2024/09/07</t>
   </si>
   <si>
     <t>Ickleton Jubilee Oval</t>
@@ -304,91 +328,100 @@
     <t>43879</t>
   </si>
   <si>
-    <t>The Meadow</t>
-  </si>
-  <si>
-    <t>2714</t>
-  </si>
-  <si>
-    <t>Norfolk Rd Playing Field, Bowling Green</t>
-  </si>
-  <si>
-    <t>Newton CC</t>
-  </si>
-  <si>
-    <t>32992</t>
-  </si>
-  <si>
-    <t>Linton Recreation Ground</t>
-  </si>
-  <si>
-    <t>5934</t>
-  </si>
-  <si>
     <t>CCA Junior League 2 South</t>
   </si>
   <si>
     <t>117786</t>
   </si>
   <si>
+    <t>Haslingfield CC - 1st XI</t>
+  </si>
+  <si>
+    <t>60482</t>
+  </si>
+  <si>
     <t>Barley CC, Cambs - 1st XI</t>
   </si>
   <si>
     <t>54034</t>
   </si>
   <si>
+    <t>Haslingfield Recreation Ground</t>
+  </si>
+  <si>
+    <t>11237</t>
+  </si>
+  <si>
+    <t>Cambourne CC - 3rd XI</t>
+  </si>
+  <si>
+    <t>104360</t>
+  </si>
+  <si>
+    <t>Harlton CC - 1st XI</t>
+  </si>
+  <si>
+    <t>62414</t>
+  </si>
+  <si>
+    <t>Ashdon CC - 1st XI</t>
+  </si>
+  <si>
+    <t>8145</t>
+  </si>
+  <si>
+    <t>Great Shelford CC - 1st XI</t>
+  </si>
+  <si>
+    <t>61999</t>
+  </si>
+  <si>
     <t>Great Chishill CC - 1st XI</t>
   </si>
   <si>
     <t>63027</t>
   </si>
   <si>
+    <t>Helions Bumpstead CC - 1st XI</t>
+  </si>
+  <si>
+    <t>52924</t>
+  </si>
+  <si>
+    <t>Coton CC - 1st XI</t>
+  </si>
+  <si>
+    <t>8328</t>
+  </si>
+  <si>
+    <t>Waltons Park</t>
+  </si>
+  <si>
+    <t>12671</t>
+  </si>
+  <si>
+    <t>Lower Cambourne</t>
+  </si>
+  <si>
+    <t>2721</t>
+  </si>
+  <si>
+    <t>The Angry Wasp Oval</t>
+  </si>
+  <si>
+    <t>5983</t>
+  </si>
+  <si>
     <t>Barley Cricket Ground</t>
   </si>
   <si>
     <t>3809</t>
   </si>
   <si>
-    <t>Helions Bumpstead CC - 1st XI</t>
-  </si>
-  <si>
-    <t>52924</t>
-  </si>
-  <si>
-    <t>Cambourne CC - 3rd XI</t>
-  </si>
-  <si>
-    <t>104360</t>
-  </si>
-  <si>
-    <t>Coton CC - 1st XI</t>
-  </si>
-  <si>
-    <t>8328</t>
-  </si>
-  <si>
-    <t>Haslingfield CC - 1st XI</t>
-  </si>
-  <si>
-    <t>60482</t>
-  </si>
-  <si>
-    <t>Ashdon CC - 1st XI</t>
-  </si>
-  <si>
-    <t>8145</t>
-  </si>
-  <si>
-    <t>Great Shelford CC - 1st XI</t>
-  </si>
-  <si>
-    <t>61999</t>
-  </si>
-  <si>
-    <t>Harlton CC - 1st XI</t>
-  </si>
-  <si>
-    <t>62414</t>
+    <t>Coton Recreation Ground</t>
+  </si>
+  <si>
+    <t>22885</t>
   </si>
   <si>
     <t>The Playing Field</t>
@@ -397,18 +430,6 @@
     <t>7268</t>
   </si>
   <si>
-    <t>Coton Recreation Ground</t>
-  </si>
-  <si>
-    <t>22885</t>
-  </si>
-  <si>
-    <t>The Angry Wasp Oval</t>
-  </si>
-  <si>
-    <t>5983</t>
-  </si>
-  <si>
     <t>Great Shelford Recreation Ground</t>
   </si>
   <si>
@@ -416,24 +437,6 @@
   </si>
   <si>
     <t>Helions Bumpstead Recreation Ground</t>
-  </si>
-  <si>
-    <t>Waltons Park</t>
-  </si>
-  <si>
-    <t>12671</t>
-  </si>
-  <si>
-    <t>Lower Cambourne</t>
-  </si>
-  <si>
-    <t>2721</t>
-  </si>
-  <si>
-    <t>Haslingfield Recreation Ground</t>
-  </si>
-  <si>
-    <t>11237</t>
   </si>
 </sst>
 </file>
@@ -771,16 +774,16 @@
         <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E11" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="F11" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="G11" t="s">
         <v>44</v>
@@ -789,7 +792,7 @@
         <v>45</v>
       </c>
       <c r="I11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="J11" t="s">
         <v>19</v>
@@ -803,16 +806,16 @@
         <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E12" t="s">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="F12" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="G12" t="s">
         <v>44</v>
@@ -821,7 +824,7 @@
         <v>45</v>
       </c>
       <c r="I12" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="J12" t="s">
         <v>19</v>
@@ -835,10 +838,10 @@
         <v>11</v>
       </c>
       <c r="C13" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E13" t="s">
         <v>12</v>
@@ -853,7 +856,7 @@
         <v>45</v>
       </c>
       <c r="I13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J13" t="s">
         <v>19</v>
@@ -867,16 +870,16 @@
         <v>11</v>
       </c>
       <c r="C14" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E14" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F14" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="G14" t="s">
         <v>44</v>
@@ -885,7 +888,7 @@
         <v>45</v>
       </c>
       <c r="I14" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="J14" t="s">
         <v>19</v>
@@ -899,16 +902,16 @@
         <v>11</v>
       </c>
       <c r="C15" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E15" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="F15" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="G15" t="s">
         <v>44</v>
@@ -917,7 +920,7 @@
         <v>45</v>
       </c>
       <c r="I15" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="J15" t="s">
         <v>19</v>
@@ -931,16 +934,16 @@
         <v>11</v>
       </c>
       <c r="C16" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E16" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="F16" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="G16" t="s">
         <v>44</v>
@@ -949,7 +952,7 @@
         <v>45</v>
       </c>
       <c r="I16" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="J16" t="s">
         <v>19</v>
@@ -963,16 +966,16 @@
         <v>11</v>
       </c>
       <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>27</v>
+      </c>
+      <c r="E17" t="s">
         <v>29</v>
       </c>
-      <c r="D17" t="s">
+      <c r="F17" t="s">
         <v>30</v>
-      </c>
-      <c r="E17" t="s">
-        <v>20</v>
-      </c>
-      <c r="F17" t="s">
-        <v>21</v>
       </c>
       <c r="G17" t="s">
         <v>44</v>
@@ -981,7 +984,7 @@
         <v>45</v>
       </c>
       <c r="I17" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="J17" t="s">
         <v>19</v>
@@ -995,10 +998,10 @@
         <v>11</v>
       </c>
       <c r="C18" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E18" t="s">
         <v>32</v>
@@ -1013,7 +1016,7 @@
         <v>45</v>
       </c>
       <c r="I18" t="s">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="J18" t="s">
         <v>19</v>
@@ -1027,16 +1030,16 @@
         <v>11</v>
       </c>
       <c r="C19" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E19" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="F19" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="G19" t="s">
         <v>44</v>
@@ -1045,7 +1048,7 @@
         <v>45</v>
       </c>
       <c r="I19" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="J19" t="s">
         <v>19</v>
@@ -1059,25 +1062,25 @@
         <v>11</v>
       </c>
       <c r="C20" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D20" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="E20" t="s">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="F20" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="G20" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H20" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I20" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="J20" t="s">
         <v>19</v>
@@ -1091,22 +1094,22 @@
         <v>11</v>
       </c>
       <c r="C21" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D21" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="E21" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="F21" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="G21" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H21" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I21" t="s">
         <v>48</v>
@@ -1123,22 +1126,22 @@
         <v>11</v>
       </c>
       <c r="C22" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D22" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="E22" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="F22" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="G22" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H22" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I22" t="s">
         <v>22</v>
@@ -1155,10 +1158,10 @@
         <v>11</v>
       </c>
       <c r="C23" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D23" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="E23" t="s">
         <v>20</v>
@@ -1167,13 +1170,13 @@
         <v>21</v>
       </c>
       <c r="G23" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H23" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I23" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="J23" t="s">
         <v>19</v>
@@ -1187,22 +1190,22 @@
         <v>11</v>
       </c>
       <c r="C24" t="s">
+        <v>32</v>
+      </c>
+      <c r="D24" t="s">
+        <v>33</v>
+      </c>
+      <c r="E24" t="s">
         <v>38</v>
       </c>
-      <c r="D24" t="s">
+      <c r="F24" t="s">
         <v>39</v>
       </c>
-      <c r="E24" t="s">
-        <v>26</v>
-      </c>
-      <c r="F24" t="s">
-        <v>27</v>
-      </c>
       <c r="G24" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H24" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I24" t="s">
         <v>18</v>
@@ -1219,25 +1222,25 @@
         <v>11</v>
       </c>
       <c r="C25" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D25" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="E25" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="F25" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="G25" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H25" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I25" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="J25" t="s">
         <v>19</v>
@@ -1251,25 +1254,25 @@
         <v>11</v>
       </c>
       <c r="C26" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D26" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="E26" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="F26" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="G26" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H26" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I26" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J26" t="s">
         <v>19</v>
@@ -1283,10 +1286,10 @@
         <v>11</v>
       </c>
       <c r="C27" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D27" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="E27" t="s">
         <v>29</v>
@@ -1295,13 +1298,13 @@
         <v>30</v>
       </c>
       <c r="G27" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H27" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I27" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J27" t="s">
         <v>19</v>
@@ -1315,25 +1318,25 @@
         <v>11</v>
       </c>
       <c r="C28" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D28" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="E28" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="F28" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="G28" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H28" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I28" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="J28" t="s">
         <v>19</v>
@@ -1347,25 +1350,25 @@
         <v>11</v>
       </c>
       <c r="C29" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="D29" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="E29" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F29" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G29" t="s">
+        <v>54</v>
+      </c>
+      <c r="H29" t="s">
         <v>55</v>
       </c>
-      <c r="H29" t="s">
+      <c r="I29" t="s">
         <v>56</v>
-      </c>
-      <c r="I29" t="s">
-        <v>40</v>
       </c>
       <c r="J29" t="s">
         <v>19</v>
@@ -1379,25 +1382,25 @@
         <v>11</v>
       </c>
       <c r="C30" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="D30" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="E30" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="F30" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="G30" t="s">
+        <v>54</v>
+      </c>
+      <c r="H30" t="s">
         <v>55</v>
       </c>
-      <c r="H30" t="s">
-        <v>56</v>
-      </c>
       <c r="I30" t="s">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="J30" t="s">
         <v>19</v>
@@ -1411,25 +1414,25 @@
         <v>11</v>
       </c>
       <c r="C31" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="D31" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="F31" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="G31" t="s">
+        <v>54</v>
+      </c>
+      <c r="H31" t="s">
         <v>55</v>
       </c>
-      <c r="H31" t="s">
-        <v>56</v>
-      </c>
       <c r="I31" t="s">
-        <v>57</v>
+        <v>18</v>
       </c>
       <c r="J31" t="s">
         <v>19</v>
@@ -1443,25 +1446,25 @@
         <v>11</v>
       </c>
       <c r="C32" t="s">
+        <v>29</v>
+      </c>
+      <c r="D32" t="s">
+        <v>30</v>
+      </c>
+      <c r="E32" t="s">
         <v>35</v>
       </c>
-      <c r="D32" t="s">
+      <c r="F32" t="s">
         <v>36</v>
       </c>
-      <c r="E32" t="s">
-        <v>32</v>
-      </c>
-      <c r="F32" t="s">
-        <v>33</v>
-      </c>
       <c r="G32" t="s">
+        <v>54</v>
+      </c>
+      <c r="H32" t="s">
         <v>55</v>
       </c>
-      <c r="H32" t="s">
-        <v>56</v>
-      </c>
       <c r="I32" t="s">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="J32" t="s">
         <v>19</v>
@@ -1475,25 +1478,25 @@
         <v>11</v>
       </c>
       <c r="C33" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="D33" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="E33" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F33" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G33" t="s">
+        <v>54</v>
+      </c>
+      <c r="H33" t="s">
         <v>55</v>
       </c>
-      <c r="H33" t="s">
-        <v>56</v>
-      </c>
       <c r="I33" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J33" t="s">
         <v>19</v>
@@ -1507,25 +1510,25 @@
         <v>11</v>
       </c>
       <c r="C34" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="D34" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="E34" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="F34" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="G34" t="s">
+        <v>54</v>
+      </c>
+      <c r="H34" t="s">
         <v>55</v>
       </c>
-      <c r="H34" t="s">
-        <v>56</v>
-      </c>
       <c r="I34" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="J34" t="s">
         <v>19</v>
@@ -1539,25 +1542,25 @@
         <v>11</v>
       </c>
       <c r="C35" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="D35" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="E35" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="F35" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="G35" t="s">
+        <v>54</v>
+      </c>
+      <c r="H35" t="s">
         <v>55</v>
       </c>
-      <c r="H35" t="s">
-        <v>56</v>
-      </c>
       <c r="I35" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="J35" t="s">
         <v>19</v>
@@ -1571,25 +1574,25 @@
         <v>11</v>
       </c>
       <c r="C36" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="D36" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="E36" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F36" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G36" t="s">
+        <v>54</v>
+      </c>
+      <c r="H36" t="s">
         <v>55</v>
       </c>
-      <c r="H36" t="s">
-        <v>56</v>
-      </c>
       <c r="I36" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="J36" t="s">
         <v>19</v>
@@ -1603,286 +1606,313 @@
         <v>11</v>
       </c>
       <c r="C37" t="s">
+        <v>29</v>
+      </c>
+      <c r="D37" t="s">
+        <v>30</v>
+      </c>
+      <c r="E37" t="s">
+        <v>12</v>
+      </c>
+      <c r="F37" t="s">
+        <v>13</v>
+      </c>
+      <c r="G37" t="s">
+        <v>54</v>
+      </c>
+      <c r="H37" t="s">
+        <v>55</v>
+      </c>
+      <c r="I37" t="s">
+        <v>49</v>
+      </c>
+      <c r="J37" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="38" x14ac:dyDescent="0.25" spans="1:10">
+      <c r="A38" t="s">
+        <v>10</v>
+      </c>
+      <c r="B38" t="s">
+        <v>11</v>
+      </c>
+      <c r="C38" t="s">
+        <v>38</v>
+      </c>
+      <c r="D38" t="s">
+        <v>39</v>
+      </c>
+      <c r="E38" t="s">
+        <v>41</v>
+      </c>
+      <c r="F38" t="s">
+        <v>42</v>
+      </c>
+      <c r="G38" t="s">
+        <v>58</v>
+      </c>
+      <c r="H38" t="s">
+        <v>59</v>
+      </c>
+      <c r="I38" t="s">
+        <v>25</v>
+      </c>
+      <c r="J38" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="39" x14ac:dyDescent="0.25" spans="1:10">
+      <c r="A39" t="s">
+        <v>10</v>
+      </c>
+      <c r="B39" t="s">
+        <v>11</v>
+      </c>
+      <c r="C39" t="s">
+        <v>38</v>
+      </c>
+      <c r="D39" t="s">
+        <v>39</v>
+      </c>
+      <c r="E39" t="s">
+        <v>32</v>
+      </c>
+      <c r="F39" t="s">
+        <v>33</v>
+      </c>
+      <c r="G39" t="s">
+        <v>58</v>
+      </c>
+      <c r="H39" t="s">
+        <v>59</v>
+      </c>
+      <c r="I39" t="s">
+        <v>47</v>
+      </c>
+      <c r="J39" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="40" x14ac:dyDescent="0.25" spans="1:10">
+      <c r="A40" t="s">
+        <v>10</v>
+      </c>
+      <c r="B40" t="s">
+        <v>11</v>
+      </c>
+      <c r="C40" t="s">
+        <v>38</v>
+      </c>
+      <c r="D40" t="s">
+        <v>39</v>
+      </c>
+      <c r="E40" t="s">
+        <v>12</v>
+      </c>
+      <c r="F40" t="s">
+        <v>13</v>
+      </c>
+      <c r="G40" t="s">
+        <v>58</v>
+      </c>
+      <c r="H40" t="s">
+        <v>59</v>
+      </c>
+      <c r="I40" t="s">
+        <v>60</v>
+      </c>
+      <c r="J40" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="41" x14ac:dyDescent="0.25" spans="1:10">
+      <c r="A41" t="s">
+        <v>10</v>
+      </c>
+      <c r="B41" t="s">
+        <v>11</v>
+      </c>
+      <c r="C41" t="s">
+        <v>38</v>
+      </c>
+      <c r="D41" t="s">
+        <v>39</v>
+      </c>
+      <c r="E41" t="s">
+        <v>26</v>
+      </c>
+      <c r="F41" t="s">
+        <v>27</v>
+      </c>
+      <c r="G41" t="s">
+        <v>58</v>
+      </c>
+      <c r="H41" t="s">
+        <v>59</v>
+      </c>
+      <c r="I41" t="s">
+        <v>57</v>
+      </c>
+      <c r="J41" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="42" x14ac:dyDescent="0.25" spans="1:10">
+      <c r="A42" t="s">
+        <v>10</v>
+      </c>
+      <c r="B42" t="s">
+        <v>11</v>
+      </c>
+      <c r="C42" t="s">
+        <v>38</v>
+      </c>
+      <c r="D42" t="s">
+        <v>39</v>
+      </c>
+      <c r="E42" t="s">
+        <v>20</v>
+      </c>
+      <c r="F42" t="s">
+        <v>21</v>
+      </c>
+      <c r="G42" t="s">
+        <v>58</v>
+      </c>
+      <c r="H42" t="s">
+        <v>59</v>
+      </c>
+      <c r="I42" t="s">
+        <v>52</v>
+      </c>
+      <c r="J42" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="43" x14ac:dyDescent="0.25" spans="1:10">
+      <c r="A43" t="s">
+        <v>10</v>
+      </c>
+      <c r="B43" t="s">
+        <v>11</v>
+      </c>
+      <c r="C43" t="s">
+        <v>38</v>
+      </c>
+      <c r="D43" t="s">
+        <v>39</v>
+      </c>
+      <c r="E43" t="s">
         <v>35</v>
       </c>
-      <c r="D37" t="s">
+      <c r="F43" t="s">
         <v>36</v>
       </c>
-      <c r="E37" t="s">
-        <v>26</v>
-      </c>
-      <c r="F37" t="s">
-        <v>27</v>
-      </c>
-      <c r="G37" t="s">
-        <v>55</v>
-      </c>
-      <c r="H37" t="s">
-        <v>56</v>
-      </c>
-      <c r="I37" t="s">
-        <v>51</v>
-      </c>
-      <c r="J37" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="38" x14ac:dyDescent="0.25" spans="1:9">
-      <c r="A38" t="s">
-        <v>10</v>
-      </c>
-      <c r="B38" t="s">
-        <v>11</v>
-      </c>
-      <c r="C38" t="s">
+      <c r="G43" t="s">
+        <v>58</v>
+      </c>
+      <c r="H43" t="s">
+        <v>59</v>
+      </c>
+      <c r="I43" t="s">
+        <v>48</v>
+      </c>
+      <c r="J43" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="44" x14ac:dyDescent="0.25" spans="1:10">
+      <c r="A44" t="s">
+        <v>10</v>
+      </c>
+      <c r="B44" t="s">
+        <v>11</v>
+      </c>
+      <c r="C44" t="s">
+        <v>38</v>
+      </c>
+      <c r="D44" t="s">
+        <v>39</v>
+      </c>
+      <c r="E44" t="s">
+        <v>14</v>
+      </c>
+      <c r="F44" t="s">
+        <v>15</v>
+      </c>
+      <c r="G44" t="s">
+        <v>58</v>
+      </c>
+      <c r="H44" t="s">
+        <v>59</v>
+      </c>
+      <c r="I44" t="s">
+        <v>43</v>
+      </c>
+      <c r="J44" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="45" x14ac:dyDescent="0.25" spans="1:10">
+      <c r="A45" t="s">
+        <v>10</v>
+      </c>
+      <c r="B45" t="s">
+        <v>11</v>
+      </c>
+      <c r="C45" t="s">
+        <v>38</v>
+      </c>
+      <c r="D45" t="s">
+        <v>39</v>
+      </c>
+      <c r="E45" t="s">
+        <v>29</v>
+      </c>
+      <c r="F45" t="s">
+        <v>30</v>
+      </c>
+      <c r="G45" t="s">
+        <v>58</v>
+      </c>
+      <c r="H45" t="s">
+        <v>59</v>
+      </c>
+      <c r="I45" t="s">
+        <v>37</v>
+      </c>
+      <c r="J45" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="46" x14ac:dyDescent="0.25" spans="1:10">
+      <c r="A46" t="s">
+        <v>10</v>
+      </c>
+      <c r="B46" t="s">
+        <v>11</v>
+      </c>
+      <c r="C46" t="s">
+        <v>38</v>
+      </c>
+      <c r="D46" t="s">
+        <v>39</v>
+      </c>
+      <c r="E46" t="s">
         <v>23</v>
       </c>
-      <c r="D38" t="s">
+      <c r="F46" t="s">
         <v>24</v>
       </c>
-      <c r="E38" t="s">
-        <v>29</v>
-      </c>
-      <c r="F38" t="s">
-        <v>30</v>
-      </c>
-      <c r="G38" t="s">
+      <c r="G46" t="s">
+        <v>58</v>
+      </c>
+      <c r="H46" t="s">
         <v>59</v>
       </c>
-      <c r="I38" t="s">
-        <v>51</v>
-      </c>
-      <c r="J38" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="39" x14ac:dyDescent="0.25" spans="1:9">
-      <c r="A39" t="s">
-        <v>10</v>
-      </c>
-      <c r="B39" t="s">
-        <v>11</v>
-      </c>
-      <c r="C39" t="s">
-        <v>23</v>
-      </c>
-      <c r="D39" t="s">
-        <v>24</v>
-      </c>
-      <c r="E39" t="s">
-        <v>26</v>
-      </c>
-      <c r="F39" t="s">
-        <v>27</v>
-      </c>
-      <c r="G39" t="s">
-        <v>59</v>
-      </c>
-      <c r="I39" t="s">
-        <v>53</v>
-      </c>
-      <c r="J39" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="40" x14ac:dyDescent="0.25" spans="1:9">
-      <c r="A40" t="s">
-        <v>10</v>
-      </c>
-      <c r="B40" t="s">
-        <v>11</v>
-      </c>
-      <c r="C40" t="s">
-        <v>23</v>
-      </c>
-      <c r="D40" t="s">
-        <v>24</v>
-      </c>
-      <c r="E40" t="s">
-        <v>14</v>
-      </c>
-      <c r="F40" t="s">
-        <v>15</v>
-      </c>
-      <c r="G40" t="s">
-        <v>59</v>
-      </c>
-      <c r="I40" t="s">
-        <v>57</v>
-      </c>
-      <c r="J40" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="41" x14ac:dyDescent="0.25" spans="1:9">
-      <c r="A41" t="s">
-        <v>10</v>
-      </c>
-      <c r="B41" t="s">
-        <v>11</v>
-      </c>
-      <c r="C41" t="s">
-        <v>23</v>
-      </c>
-      <c r="D41" t="s">
-        <v>24</v>
-      </c>
-      <c r="E41" t="s">
-        <v>12</v>
-      </c>
-      <c r="F41" t="s">
-        <v>13</v>
-      </c>
-      <c r="G41" t="s">
-        <v>59</v>
-      </c>
-      <c r="I41" t="s">
-        <v>46</v>
-      </c>
-      <c r="J41" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="42" x14ac:dyDescent="0.25" spans="1:9">
-      <c r="A42" t="s">
-        <v>10</v>
-      </c>
-      <c r="B42" t="s">
-        <v>11</v>
-      </c>
-      <c r="C42" t="s">
-        <v>23</v>
-      </c>
-      <c r="D42" t="s">
-        <v>24</v>
-      </c>
-      <c r="E42" t="s">
-        <v>41</v>
-      </c>
-      <c r="F42" t="s">
-        <v>42</v>
-      </c>
-      <c r="G42" t="s">
-        <v>59</v>
-      </c>
-      <c r="I42" t="s">
-        <v>37</v>
-      </c>
-      <c r="J42" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="43" x14ac:dyDescent="0.25" spans="1:9">
-      <c r="A43" t="s">
-        <v>10</v>
-      </c>
-      <c r="B43" t="s">
-        <v>11</v>
-      </c>
-      <c r="C43" t="s">
-        <v>23</v>
-      </c>
-      <c r="D43" t="s">
-        <v>24</v>
-      </c>
-      <c r="E43" t="s">
-        <v>32</v>
-      </c>
-      <c r="F43" t="s">
-        <v>33</v>
-      </c>
-      <c r="G43" t="s">
-        <v>59</v>
-      </c>
-      <c r="I43" t="s">
-        <v>54</v>
-      </c>
-      <c r="J43" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="44" x14ac:dyDescent="0.25" spans="1:9">
-      <c r="A44" t="s">
-        <v>10</v>
-      </c>
-      <c r="B44" t="s">
-        <v>11</v>
-      </c>
-      <c r="C44" t="s">
-        <v>23</v>
-      </c>
-      <c r="D44" t="s">
-        <v>24</v>
-      </c>
-      <c r="E44" t="s">
-        <v>35</v>
-      </c>
-      <c r="F44" t="s">
-        <v>36</v>
-      </c>
-      <c r="G44" t="s">
-        <v>59</v>
-      </c>
-      <c r="I44" t="s">
-        <v>22</v>
-      </c>
-      <c r="J44" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="45" x14ac:dyDescent="0.25" spans="1:9">
-      <c r="A45" t="s">
-        <v>10</v>
-      </c>
-      <c r="B45" t="s">
-        <v>11</v>
-      </c>
-      <c r="C45" t="s">
-        <v>23</v>
-      </c>
-      <c r="D45" t="s">
-        <v>24</v>
-      </c>
-      <c r="E45" t="s">
-        <v>38</v>
-      </c>
-      <c r="F45" t="s">
-        <v>39</v>
-      </c>
-      <c r="G45" t="s">
-        <v>59</v>
-      </c>
-      <c r="I45" t="s">
+      <c r="I46" t="s">
         <v>28</v>
-      </c>
-      <c r="J45" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="46" x14ac:dyDescent="0.25" spans="1:9">
-      <c r="A46" t="s">
-        <v>10</v>
-      </c>
-      <c r="B46" t="s">
-        <v>11</v>
-      </c>
-      <c r="C46" t="s">
-        <v>23</v>
-      </c>
-      <c r="D46" t="s">
-        <v>24</v>
-      </c>
-      <c r="E46" t="s">
-        <v>20</v>
-      </c>
-      <c r="F46" t="s">
-        <v>21</v>
-      </c>
-      <c r="G46" t="s">
-        <v>59</v>
-      </c>
-      <c r="I46" t="s">
-        <v>58</v>
       </c>
       <c r="J46" t="s">
         <v>19</v>
@@ -1896,25 +1926,25 @@
         <v>11</v>
       </c>
       <c r="C47" t="s">
+        <v>35</v>
+      </c>
+      <c r="D47" t="s">
+        <v>36</v>
+      </c>
+      <c r="E47" t="s">
         <v>32</v>
       </c>
-      <c r="D47" t="s">
+      <c r="F47" t="s">
         <v>33</v>
       </c>
-      <c r="E47" t="s">
-        <v>23</v>
-      </c>
-      <c r="F47" t="s">
-        <v>24</v>
-      </c>
       <c r="G47" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H47" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="I47" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="J47" t="s">
         <v>19</v>
@@ -1928,25 +1958,25 @@
         <v>11</v>
       </c>
       <c r="C48" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D48" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E48" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="F48" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="G48" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H48" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="I48" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="J48" t="s">
         <v>19</v>
@@ -1960,25 +1990,25 @@
         <v>11</v>
       </c>
       <c r="C49" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D49" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E49" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="F49" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="G49" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H49" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="I49" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="J49" t="s">
         <v>19</v>
@@ -1992,25 +2022,25 @@
         <v>11</v>
       </c>
       <c r="C50" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D50" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E50" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="F50" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="G50" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H50" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="I50" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="J50" t="s">
         <v>19</v>
@@ -2024,10 +2054,10 @@
         <v>11</v>
       </c>
       <c r="C51" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D51" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E51" t="s">
         <v>12</v>
@@ -2036,13 +2066,13 @@
         <v>13</v>
       </c>
       <c r="G51" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H51" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="I51" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="J51" t="s">
         <v>19</v>
@@ -2056,25 +2086,25 @@
         <v>11</v>
       </c>
       <c r="C52" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D52" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E52" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="F52" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="G52" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H52" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="I52" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="J52" t="s">
         <v>19</v>
@@ -2088,25 +2118,25 @@
         <v>11</v>
       </c>
       <c r="C53" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D53" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E53" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="F53" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="G53" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H53" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="I53" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="J53" t="s">
         <v>19</v>
@@ -2120,25 +2150,25 @@
         <v>11</v>
       </c>
       <c r="C54" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D54" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E54" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="F54" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="G54" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H54" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="I54" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="J54" t="s">
         <v>19</v>
@@ -2152,25 +2182,25 @@
         <v>11</v>
       </c>
       <c r="C55" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D55" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E55" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="F55" t="s">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="G55" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H55" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="I55" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="J55" t="s">
         <v>19</v>
@@ -2184,25 +2214,25 @@
         <v>11</v>
       </c>
       <c r="C56" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="D56" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="E56" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="F56" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="G56" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="H56" t="s">
+        <v>65</v>
+      </c>
+      <c r="I56" t="s">
         <v>63</v>
-      </c>
-      <c r="I56" t="s">
-        <v>47</v>
       </c>
       <c r="J56" t="s">
         <v>19</v>
@@ -2216,10 +2246,10 @@
         <v>11</v>
       </c>
       <c r="C57" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="D57" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="E57" t="s">
         <v>32</v>
@@ -2228,13 +2258,13 @@
         <v>33</v>
       </c>
       <c r="G57" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="H57" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="I57" t="s">
-        <v>25</v>
+        <v>56</v>
       </c>
       <c r="J57" t="s">
         <v>19</v>
@@ -2248,10 +2278,10 @@
         <v>11</v>
       </c>
       <c r="C58" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="D58" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="E58" t="s">
         <v>26</v>
@@ -2260,13 +2290,13 @@
         <v>27</v>
       </c>
       <c r="G58" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="H58" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="I58" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="J58" t="s">
         <v>19</v>
@@ -2280,25 +2310,25 @@
         <v>11</v>
       </c>
       <c r="C59" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="D59" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="E59" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="F59" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="G59" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="H59" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="I59" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="J59" t="s">
         <v>19</v>
@@ -2312,10 +2342,10 @@
         <v>11</v>
       </c>
       <c r="C60" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="D60" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="E60" t="s">
         <v>12</v>
@@ -2324,13 +2354,13 @@
         <v>13</v>
       </c>
       <c r="G60" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="H60" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="I60" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J60" t="s">
         <v>19</v>
@@ -2344,25 +2374,25 @@
         <v>11</v>
       </c>
       <c r="C61" t="s">
+        <v>20</v>
+      </c>
+      <c r="D61" t="s">
+        <v>21</v>
+      </c>
+      <c r="E61" t="s">
         <v>41</v>
       </c>
-      <c r="D61" t="s">
+      <c r="F61" t="s">
         <v>42</v>
       </c>
-      <c r="E61" t="s">
-        <v>29</v>
-      </c>
-      <c r="F61" t="s">
-        <v>30</v>
-      </c>
       <c r="G61" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="H61" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="I61" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="J61" t="s">
         <v>19</v>
@@ -2376,25 +2406,25 @@
         <v>11</v>
       </c>
       <c r="C62" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="D62" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="E62" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="F62" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="G62" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="H62" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="I62" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="J62" t="s">
         <v>19</v>
@@ -2408,25 +2438,25 @@
         <v>11</v>
       </c>
       <c r="C63" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="D63" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="E63" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="F63" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="G63" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="H63" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="I63" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="J63" t="s">
         <v>19</v>
@@ -2440,246 +2470,225 @@
         <v>11</v>
       </c>
       <c r="C64" t="s">
+        <v>20</v>
+      </c>
+      <c r="D64" t="s">
+        <v>21</v>
+      </c>
+      <c r="E64" t="s">
+        <v>35</v>
+      </c>
+      <c r="F64" t="s">
+        <v>36</v>
+      </c>
+      <c r="G64" t="s">
+        <v>64</v>
+      </c>
+      <c r="H64" t="s">
+        <v>65</v>
+      </c>
+      <c r="I64" t="s">
+        <v>28</v>
+      </c>
+      <c r="J64" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="65" x14ac:dyDescent="0.25" spans="1:9">
+      <c r="A65" t="s">
+        <v>10</v>
+      </c>
+      <c r="B65" t="s">
+        <v>11</v>
+      </c>
+      <c r="C65" t="s">
+        <v>23</v>
+      </c>
+      <c r="D65" t="s">
+        <v>24</v>
+      </c>
+      <c r="E65" t="s">
+        <v>14</v>
+      </c>
+      <c r="F65" t="s">
+        <v>15</v>
+      </c>
+      <c r="G65" t="s">
+        <v>66</v>
+      </c>
+      <c r="I65" t="s">
+        <v>49</v>
+      </c>
+      <c r="J65" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="66" x14ac:dyDescent="0.25" spans="1:9">
+      <c r="A66" t="s">
+        <v>10</v>
+      </c>
+      <c r="B66" t="s">
+        <v>11</v>
+      </c>
+      <c r="C66" t="s">
+        <v>23</v>
+      </c>
+      <c r="D66" t="s">
+        <v>24</v>
+      </c>
+      <c r="E66" t="s">
+        <v>32</v>
+      </c>
+      <c r="F66" t="s">
+        <v>33</v>
+      </c>
+      <c r="G66" t="s">
+        <v>66</v>
+      </c>
+      <c r="I66" t="s">
+        <v>46</v>
+      </c>
+      <c r="J66" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="67" x14ac:dyDescent="0.25" spans="1:9">
+      <c r="A67" t="s">
+        <v>10</v>
+      </c>
+      <c r="B67" t="s">
+        <v>11</v>
+      </c>
+      <c r="C67" t="s">
+        <v>23</v>
+      </c>
+      <c r="D67" t="s">
+        <v>24</v>
+      </c>
+      <c r="E67" t="s">
+        <v>26</v>
+      </c>
+      <c r="F67" t="s">
+        <v>27</v>
+      </c>
+      <c r="G67" t="s">
+        <v>66</v>
+      </c>
+      <c r="I67" t="s">
+        <v>56</v>
+      </c>
+      <c r="J67" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="68" x14ac:dyDescent="0.25" spans="1:9">
+      <c r="A68" t="s">
+        <v>10</v>
+      </c>
+      <c r="B68" t="s">
+        <v>11</v>
+      </c>
+      <c r="C68" t="s">
+        <v>23</v>
+      </c>
+      <c r="D68" t="s">
+        <v>24</v>
+      </c>
+      <c r="E68" t="s">
         <v>41</v>
       </c>
-      <c r="D64" t="s">
+      <c r="F68" t="s">
         <v>42</v>
       </c>
-      <c r="E64" t="s">
+      <c r="G68" t="s">
+        <v>66</v>
+      </c>
+      <c r="I68" t="s">
+        <v>18</v>
+      </c>
+      <c r="J68" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="69" x14ac:dyDescent="0.25" spans="1:9">
+      <c r="A69" t="s">
+        <v>10</v>
+      </c>
+      <c r="B69" t="s">
+        <v>11</v>
+      </c>
+      <c r="C69" t="s">
+        <v>23</v>
+      </c>
+      <c r="D69" t="s">
+        <v>24</v>
+      </c>
+      <c r="E69" t="s">
+        <v>20</v>
+      </c>
+      <c r="F69" t="s">
+        <v>21</v>
+      </c>
+      <c r="G69" t="s">
+        <v>66</v>
+      </c>
+      <c r="I69" t="s">
+        <v>31</v>
+      </c>
+      <c r="J69" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="70" x14ac:dyDescent="0.25" spans="1:9">
+      <c r="A70" t="s">
+        <v>10</v>
+      </c>
+      <c r="B70" t="s">
+        <v>11</v>
+      </c>
+      <c r="C70" t="s">
+        <v>23</v>
+      </c>
+      <c r="D70" t="s">
+        <v>24</v>
+      </c>
+      <c r="E70" t="s">
         <v>38</v>
       </c>
-      <c r="F64" t="s">
+      <c r="F70" t="s">
         <v>39</v>
       </c>
-      <c r="G64" t="s">
-        <v>62</v>
-      </c>
-      <c r="H64" t="s">
+      <c r="G70" t="s">
+        <v>66</v>
+      </c>
+      <c r="I70" t="s">
         <v>63</v>
       </c>
-      <c r="I64" t="s">
-        <v>34</v>
-      </c>
-      <c r="J64" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="65" x14ac:dyDescent="0.25" spans="1:10">
-      <c r="A65" t="s">
-        <v>10</v>
-      </c>
-      <c r="B65" t="s">
-        <v>11</v>
-      </c>
-      <c r="C65" t="s">
-        <v>14</v>
-      </c>
-      <c r="D65" t="s">
-        <v>15</v>
-      </c>
-      <c r="E65" t="s">
-        <v>38</v>
-      </c>
-      <c r="F65" t="s">
-        <v>39</v>
-      </c>
-      <c r="G65" t="s">
-        <v>64</v>
-      </c>
-      <c r="H65" t="s">
-        <v>65</v>
-      </c>
-      <c r="I65" t="s">
-        <v>31</v>
-      </c>
-      <c r="J65" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="66" x14ac:dyDescent="0.25" spans="1:10">
-      <c r="A66" t="s">
-        <v>10</v>
-      </c>
-      <c r="B66" t="s">
-        <v>11</v>
-      </c>
-      <c r="C66" t="s">
-        <v>14</v>
-      </c>
-      <c r="D66" t="s">
-        <v>15</v>
-      </c>
-      <c r="E66" t="s">
+      <c r="J70" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="71" x14ac:dyDescent="0.25" spans="1:9">
+      <c r="A71" t="s">
+        <v>10</v>
+      </c>
+      <c r="B71" t="s">
+        <v>11</v>
+      </c>
+      <c r="C71" t="s">
         <v>23</v>
       </c>
-      <c r="F66" t="s">
+      <c r="D71" t="s">
         <v>24</v>
       </c>
-      <c r="G66" t="s">
-        <v>64</v>
-      </c>
-      <c r="H66" t="s">
-        <v>65</v>
-      </c>
-      <c r="I66" t="s">
-        <v>34</v>
-      </c>
-      <c r="J66" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="67" x14ac:dyDescent="0.25" spans="1:10">
-      <c r="A67" t="s">
-        <v>10</v>
-      </c>
-      <c r="B67" t="s">
-        <v>11</v>
-      </c>
-      <c r="C67" t="s">
-        <v>14</v>
-      </c>
-      <c r="D67" t="s">
-        <v>15</v>
-      </c>
-      <c r="E67" t="s">
-        <v>35</v>
-      </c>
-      <c r="F67" t="s">
-        <v>36</v>
-      </c>
-      <c r="G67" t="s">
-        <v>64</v>
-      </c>
-      <c r="H67" t="s">
-        <v>65</v>
-      </c>
-      <c r="I67" t="s">
-        <v>43</v>
-      </c>
-      <c r="J67" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="68" x14ac:dyDescent="0.25" spans="1:10">
-      <c r="A68" t="s">
-        <v>10</v>
-      </c>
-      <c r="B68" t="s">
-        <v>11</v>
-      </c>
-      <c r="C68" t="s">
-        <v>14</v>
-      </c>
-      <c r="D68" t="s">
-        <v>15</v>
-      </c>
-      <c r="E68" t="s">
-        <v>20</v>
-      </c>
-      <c r="F68" t="s">
-        <v>21</v>
-      </c>
-      <c r="G68" t="s">
-        <v>64</v>
-      </c>
-      <c r="H68" t="s">
-        <v>65</v>
-      </c>
-      <c r="I68" t="s">
-        <v>51</v>
-      </c>
-      <c r="J68" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="69" x14ac:dyDescent="0.25" spans="1:10">
-      <c r="A69" t="s">
-        <v>10</v>
-      </c>
-      <c r="B69" t="s">
-        <v>11</v>
-      </c>
-      <c r="C69" t="s">
-        <v>14</v>
-      </c>
-      <c r="D69" t="s">
-        <v>15</v>
-      </c>
-      <c r="E69" t="s">
+      <c r="E71" t="s">
         <v>29</v>
       </c>
-      <c r="F69" t="s">
+      <c r="F71" t="s">
         <v>30</v>
       </c>
-      <c r="G69" t="s">
-        <v>64</v>
-      </c>
-      <c r="H69" t="s">
-        <v>65</v>
-      </c>
-      <c r="I69" t="s">
-        <v>22</v>
-      </c>
-      <c r="J69" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="70" x14ac:dyDescent="0.25" spans="1:10">
-      <c r="A70" t="s">
-        <v>10</v>
-      </c>
-      <c r="B70" t="s">
-        <v>11</v>
-      </c>
-      <c r="C70" t="s">
-        <v>14</v>
-      </c>
-      <c r="D70" t="s">
-        <v>15</v>
-      </c>
-      <c r="E70" t="s">
-        <v>26</v>
-      </c>
-      <c r="F70" t="s">
-        <v>27</v>
-      </c>
-      <c r="G70" t="s">
-        <v>64</v>
-      </c>
-      <c r="H70" t="s">
-        <v>65</v>
-      </c>
-      <c r="I70" t="s">
-        <v>52</v>
-      </c>
-      <c r="J70" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="71" x14ac:dyDescent="0.25" spans="1:10">
-      <c r="A71" t="s">
-        <v>10</v>
-      </c>
-      <c r="B71" t="s">
-        <v>11</v>
-      </c>
-      <c r="C71" t="s">
-        <v>14</v>
-      </c>
-      <c r="D71" t="s">
-        <v>15</v>
-      </c>
-      <c r="E71" t="s">
-        <v>12</v>
-      </c>
-      <c r="F71" t="s">
-        <v>13</v>
-      </c>
       <c r="G71" t="s">
-        <v>64</v>
-      </c>
-      <c r="H71" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I71" t="s">
         <v>48</v>
@@ -2688,7 +2697,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="72" x14ac:dyDescent="0.25" spans="1:10">
+    <row r="72" x14ac:dyDescent="0.25" spans="1:9">
       <c r="A72" t="s">
         <v>10</v>
       </c>
@@ -2696,31 +2705,28 @@
         <v>11</v>
       </c>
       <c r="C72" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="D72" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="E72" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="F72" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="G72" t="s">
-        <v>64</v>
-      </c>
-      <c r="H72" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I72" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="J72" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="73" x14ac:dyDescent="0.25" spans="1:10">
+    <row r="73" x14ac:dyDescent="0.25" spans="1:9">
       <c r="A73" t="s">
         <v>10</v>
       </c>
@@ -2728,25 +2734,22 @@
         <v>11</v>
       </c>
       <c r="C73" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="D73" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="E73" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="F73" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="G73" t="s">
-        <v>64</v>
-      </c>
-      <c r="H73" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I73" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="J73" t="s">
         <v>19</v>
@@ -2760,25 +2763,25 @@
         <v>11</v>
       </c>
       <c r="C74" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D74" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E74" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F74" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G74" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H74" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I74" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="J74" t="s">
         <v>19</v>
@@ -2792,25 +2795,25 @@
         <v>11</v>
       </c>
       <c r="C75" t="s">
+        <v>14</v>
+      </c>
+      <c r="D75" t="s">
+        <v>15</v>
+      </c>
+      <c r="E75" t="s">
         <v>20</v>
       </c>
-      <c r="D75" t="s">
+      <c r="F75" t="s">
         <v>21</v>
       </c>
-      <c r="E75" t="s">
-        <v>41</v>
-      </c>
-      <c r="F75" t="s">
-        <v>42</v>
-      </c>
       <c r="G75" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H75" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I75" t="s">
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="J75" t="s">
         <v>19</v>
@@ -2824,25 +2827,25 @@
         <v>11</v>
       </c>
       <c r="C76" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D76" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E76" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="F76" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G76" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H76" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I76" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="J76" t="s">
         <v>19</v>
@@ -2856,10 +2859,10 @@
         <v>11</v>
       </c>
       <c r="C77" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D77" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E77" t="s">
         <v>26</v>
@@ -2868,13 +2871,13 @@
         <v>27</v>
       </c>
       <c r="G77" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H77" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I77" t="s">
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="J77" t="s">
         <v>19</v>
@@ -2888,25 +2891,25 @@
         <v>11</v>
       </c>
       <c r="C78" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D78" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E78" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="F78" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="G78" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H78" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I78" t="s">
-        <v>31</v>
+        <v>57</v>
       </c>
       <c r="J78" t="s">
         <v>19</v>
@@ -2920,25 +2923,25 @@
         <v>11</v>
       </c>
       <c r="C79" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D79" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E79" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="F79" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="G79" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H79" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I79" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="J79" t="s">
         <v>19</v>
@@ -2952,25 +2955,25 @@
         <v>11</v>
       </c>
       <c r="C80" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D80" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E80" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="F80" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="G80" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H80" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I80" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="J80" t="s">
         <v>19</v>
@@ -2984,25 +2987,25 @@
         <v>11</v>
       </c>
       <c r="C81" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D81" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E81" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="F81" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="G81" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H81" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I81" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="J81" t="s">
         <v>19</v>
@@ -3016,10 +3019,10 @@
         <v>11</v>
       </c>
       <c r="C82" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D82" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E82" t="s">
         <v>38</v>
@@ -3028,13 +3031,13 @@
         <v>39</v>
       </c>
       <c r="G82" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H82" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I82" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="J82" t="s">
         <v>19</v>
@@ -3048,16 +3051,16 @@
         <v>11</v>
       </c>
       <c r="C83" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="D83" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="E83" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="F83" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="G83" t="s">
         <v>69</v>
@@ -3066,7 +3069,7 @@
         <v>70</v>
       </c>
       <c r="I83" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="J83" t="s">
         <v>19</v>
@@ -3080,16 +3083,16 @@
         <v>11</v>
       </c>
       <c r="C84" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="D84" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="E84" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="F84" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="G84" t="s">
         <v>69</v>
@@ -3098,7 +3101,7 @@
         <v>70</v>
       </c>
       <c r="I84" t="s">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="J84" t="s">
         <v>19</v>
@@ -3112,16 +3115,16 @@
         <v>11</v>
       </c>
       <c r="C85" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="D85" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="E85" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F85" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="G85" t="s">
         <v>69</v>
@@ -3130,7 +3133,7 @@
         <v>70</v>
       </c>
       <c r="I85" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="J85" t="s">
         <v>19</v>
@@ -3144,16 +3147,16 @@
         <v>11</v>
       </c>
       <c r="C86" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="D86" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="E86" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F86" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G86" t="s">
         <v>69</v>
@@ -3162,7 +3165,7 @@
         <v>70</v>
       </c>
       <c r="I86" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="J86" t="s">
         <v>19</v>
@@ -3176,16 +3179,16 @@
         <v>11</v>
       </c>
       <c r="C87" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="D87" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="E87" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="F87" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="G87" t="s">
         <v>69</v>
@@ -3194,7 +3197,7 @@
         <v>70</v>
       </c>
       <c r="I87" t="s">
-        <v>58</v>
+        <v>28</v>
       </c>
       <c r="J87" t="s">
         <v>19</v>
@@ -3208,16 +3211,16 @@
         <v>11</v>
       </c>
       <c r="C88" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="D88" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="E88" t="s">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="F88" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="G88" t="s">
         <v>69</v>
@@ -3226,7 +3229,7 @@
         <v>70</v>
       </c>
       <c r="I88" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="J88" t="s">
         <v>19</v>
@@ -3240,16 +3243,16 @@
         <v>11</v>
       </c>
       <c r="C89" t="s">
+        <v>41</v>
+      </c>
+      <c r="D89" t="s">
+        <v>42</v>
+      </c>
+      <c r="E89" t="s">
         <v>26</v>
       </c>
-      <c r="D89" t="s">
+      <c r="F89" t="s">
         <v>27</v>
-      </c>
-      <c r="E89" t="s">
-        <v>12</v>
-      </c>
-      <c r="F89" t="s">
-        <v>13</v>
       </c>
       <c r="G89" t="s">
         <v>69</v>
@@ -3258,7 +3261,7 @@
         <v>70</v>
       </c>
       <c r="I89" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="J89" t="s">
         <v>19</v>
@@ -3272,16 +3275,16 @@
         <v>11</v>
       </c>
       <c r="C90" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="D90" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="E90" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F90" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G90" t="s">
         <v>69</v>
@@ -3290,7 +3293,7 @@
         <v>70</v>
       </c>
       <c r="I90" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="J90" t="s">
         <v>19</v>
@@ -3304,16 +3307,16 @@
         <v>11</v>
       </c>
       <c r="C91" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="D91" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="E91" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="F91" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G91" t="s">
         <v>69</v>
@@ -3322,13 +3325,13 @@
         <v>70</v>
       </c>
       <c r="I91" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="J91" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="92" x14ac:dyDescent="0.25" spans="1:10">
+    <row r="92" x14ac:dyDescent="0.25" spans="1:9">
       <c r="A92" t="s">
         <v>71</v>
       </c>
@@ -3350,17 +3353,14 @@
       <c r="G92" t="s">
         <v>77</v>
       </c>
-      <c r="H92" t="s">
-        <v>78</v>
-      </c>
       <c r="I92" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="J92" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="93" x14ac:dyDescent="0.25" spans="1:10">
+    <row r="93" x14ac:dyDescent="0.25" spans="1:9">
       <c r="A93" t="s">
         <v>71</v>
       </c>
@@ -3374,25 +3374,22 @@
         <v>74</v>
       </c>
       <c r="E93" t="s">
+        <v>78</v>
+      </c>
+      <c r="F93" t="s">
         <v>79</v>
-      </c>
-      <c r="F93" t="s">
-        <v>80</v>
       </c>
       <c r="G93" t="s">
         <v>77</v>
       </c>
-      <c r="H93" t="s">
-        <v>78</v>
-      </c>
       <c r="I93" t="s">
-        <v>58</v>
+        <v>37</v>
       </c>
       <c r="J93" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="94" x14ac:dyDescent="0.25" spans="1:10">
+    <row r="94" x14ac:dyDescent="0.25" spans="1:9">
       <c r="A94" t="s">
         <v>71</v>
       </c>
@@ -3406,25 +3403,22 @@
         <v>74</v>
       </c>
       <c r="E94" t="s">
+        <v>80</v>
+      </c>
+      <c r="F94" t="s">
         <v>81</v>
-      </c>
-      <c r="F94" t="s">
-        <v>82</v>
       </c>
       <c r="G94" t="s">
         <v>77</v>
       </c>
-      <c r="H94" t="s">
-        <v>78</v>
-      </c>
       <c r="I94" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="J94" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="95" x14ac:dyDescent="0.25" spans="1:10">
+    <row r="95" x14ac:dyDescent="0.25" spans="1:9">
       <c r="A95" t="s">
         <v>71</v>
       </c>
@@ -3438,25 +3432,22 @@
         <v>74</v>
       </c>
       <c r="E95" t="s">
+        <v>82</v>
+      </c>
+      <c r="F95" t="s">
         <v>83</v>
-      </c>
-      <c r="F95" t="s">
-        <v>84</v>
       </c>
       <c r="G95" t="s">
         <v>77</v>
       </c>
-      <c r="H95" t="s">
-        <v>78</v>
-      </c>
       <c r="I95" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="J95" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="96" x14ac:dyDescent="0.25" spans="1:10">
+    <row r="96" x14ac:dyDescent="0.25" spans="1:9">
       <c r="A96" t="s">
         <v>71</v>
       </c>
@@ -3470,25 +3461,22 @@
         <v>74</v>
       </c>
       <c r="E96" t="s">
+        <v>84</v>
+      </c>
+      <c r="F96" t="s">
         <v>85</v>
-      </c>
-      <c r="F96" t="s">
-        <v>86</v>
       </c>
       <c r="G96" t="s">
         <v>77</v>
       </c>
-      <c r="H96" t="s">
-        <v>78</v>
-      </c>
       <c r="I96" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="J96" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="97" x14ac:dyDescent="0.25" spans="1:10">
+    <row r="97" x14ac:dyDescent="0.25" spans="1:9">
       <c r="A97" t="s">
         <v>71</v>
       </c>
@@ -3502,25 +3490,22 @@
         <v>74</v>
       </c>
       <c r="E97" t="s">
+        <v>86</v>
+      </c>
+      <c r="F97" t="s">
         <v>87</v>
-      </c>
-      <c r="F97" t="s">
-        <v>88</v>
       </c>
       <c r="G97" t="s">
         <v>77</v>
       </c>
-      <c r="H97" t="s">
-        <v>78</v>
-      </c>
       <c r="I97" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="J97" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="98" x14ac:dyDescent="0.25" spans="1:10">
+    <row r="98" x14ac:dyDescent="0.25" spans="1:9">
       <c r="A98" t="s">
         <v>71</v>
       </c>
@@ -3534,25 +3519,22 @@
         <v>74</v>
       </c>
       <c r="E98" t="s">
+        <v>88</v>
+      </c>
+      <c r="F98" t="s">
         <v>89</v>
-      </c>
-      <c r="F98" t="s">
-        <v>90</v>
       </c>
       <c r="G98" t="s">
         <v>77</v>
       </c>
-      <c r="H98" t="s">
-        <v>78</v>
-      </c>
       <c r="I98" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J98" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="99" x14ac:dyDescent="0.25" spans="1:10">
+    <row r="99" x14ac:dyDescent="0.25" spans="1:9">
       <c r="A99" t="s">
         <v>71</v>
       </c>
@@ -3566,25 +3548,22 @@
         <v>74</v>
       </c>
       <c r="E99" t="s">
+        <v>90</v>
+      </c>
+      <c r="F99" t="s">
         <v>91</v>
-      </c>
-      <c r="F99" t="s">
-        <v>92</v>
       </c>
       <c r="G99" t="s">
         <v>77</v>
       </c>
-      <c r="H99" t="s">
-        <v>78</v>
-      </c>
       <c r="I99" t="s">
-        <v>18</v>
+        <v>60</v>
       </c>
       <c r="J99" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="100" x14ac:dyDescent="0.25" spans="1:9">
+    <row r="100" x14ac:dyDescent="0.25" spans="1:10">
       <c r="A100" t="s">
         <v>71</v>
       </c>
@@ -3592,28 +3571,31 @@
         <v>72</v>
       </c>
       <c r="C100" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="D100" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="E100" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="F100" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="G100" t="s">
-        <v>93</v>
+        <v>58</v>
+      </c>
+      <c r="H100" t="s">
+        <v>59</v>
       </c>
       <c r="I100" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="J100" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="101" x14ac:dyDescent="0.25" spans="1:9">
+    <row r="101" x14ac:dyDescent="0.25" spans="1:10">
       <c r="A101" t="s">
         <v>71</v>
       </c>
@@ -3621,28 +3603,31 @@
         <v>72</v>
       </c>
       <c r="C101" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="D101" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="E101" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="F101" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="G101" t="s">
-        <v>93</v>
+        <v>58</v>
+      </c>
+      <c r="H101" t="s">
+        <v>59</v>
       </c>
       <c r="I101" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="J101" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="102" x14ac:dyDescent="0.25" spans="1:9">
+    <row r="102" x14ac:dyDescent="0.25" spans="1:10">
       <c r="A102" t="s">
         <v>71</v>
       </c>
@@ -3650,28 +3635,31 @@
         <v>72</v>
       </c>
       <c r="C102" t="s">
+        <v>75</v>
+      </c>
+      <c r="D102" t="s">
+        <v>76</v>
+      </c>
+      <c r="E102" t="s">
+        <v>80</v>
+      </c>
+      <c r="F102" t="s">
         <v>81</v>
       </c>
-      <c r="D102" t="s">
-        <v>82</v>
-      </c>
-      <c r="E102" t="s">
-        <v>73</v>
-      </c>
-      <c r="F102" t="s">
-        <v>74</v>
-      </c>
       <c r="G102" t="s">
-        <v>93</v>
+        <v>58</v>
+      </c>
+      <c r="H102" t="s">
+        <v>59</v>
       </c>
       <c r="I102" t="s">
-        <v>40</v>
+        <v>63</v>
       </c>
       <c r="J102" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="103" x14ac:dyDescent="0.25" spans="1:9">
+    <row r="103" x14ac:dyDescent="0.25" spans="1:10">
       <c r="A103" t="s">
         <v>71</v>
       </c>
@@ -3679,28 +3667,31 @@
         <v>72</v>
       </c>
       <c r="C103" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="D103" t="s">
+        <v>76</v>
+      </c>
+      <c r="E103" t="s">
         <v>82</v>
       </c>
-      <c r="E103" t="s">
-        <v>85</v>
-      </c>
       <c r="F103" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="G103" t="s">
-        <v>93</v>
+        <v>58</v>
+      </c>
+      <c r="H103" t="s">
+        <v>59</v>
       </c>
       <c r="I103" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="J103" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="104" x14ac:dyDescent="0.25" spans="1:9">
+    <row r="104" x14ac:dyDescent="0.25" spans="1:10">
       <c r="A104" t="s">
         <v>71</v>
       </c>
@@ -3708,28 +3699,31 @@
         <v>72</v>
       </c>
       <c r="C104" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="D104" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="E104" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="F104" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="G104" t="s">
-        <v>93</v>
+        <v>58</v>
+      </c>
+      <c r="H104" t="s">
+        <v>59</v>
       </c>
       <c r="I104" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="J104" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="105" x14ac:dyDescent="0.25" spans="1:9">
+    <row r="105" x14ac:dyDescent="0.25" spans="1:10">
       <c r="A105" t="s">
         <v>71</v>
       </c>
@@ -3737,28 +3731,31 @@
         <v>72</v>
       </c>
       <c r="C105" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="D105" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="E105" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="F105" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="G105" t="s">
-        <v>93</v>
+        <v>58</v>
+      </c>
+      <c r="H105" t="s">
+        <v>59</v>
       </c>
       <c r="I105" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="J105" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="106" x14ac:dyDescent="0.25" spans="1:9">
+    <row r="106" x14ac:dyDescent="0.25" spans="1:10">
       <c r="A106" t="s">
         <v>71</v>
       </c>
@@ -3766,28 +3763,31 @@
         <v>72</v>
       </c>
       <c r="C106" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="D106" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="E106" t="s">
+        <v>78</v>
+      </c>
+      <c r="F106" t="s">
         <v>79</v>
       </c>
-      <c r="F106" t="s">
-        <v>80</v>
-      </c>
       <c r="G106" t="s">
-        <v>93</v>
+        <v>58</v>
+      </c>
+      <c r="H106" t="s">
+        <v>59</v>
       </c>
       <c r="I106" t="s">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="J106" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="107" x14ac:dyDescent="0.25" spans="1:9">
+    <row r="107" x14ac:dyDescent="0.25" spans="1:10">
       <c r="A107" t="s">
         <v>71</v>
       </c>
@@ -3795,22 +3795,25 @@
         <v>72</v>
       </c>
       <c r="C107" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="D107" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="E107" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="F107" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="G107" t="s">
-        <v>93</v>
+        <v>58</v>
+      </c>
+      <c r="H107" t="s">
+        <v>59</v>
       </c>
       <c r="I107" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="J107" t="s">
         <v>19</v>
@@ -3824,22 +3827,22 @@
         <v>72</v>
       </c>
       <c r="C108" t="s">
+        <v>88</v>
+      </c>
+      <c r="D108" t="s">
         <v>89</v>
       </c>
-      <c r="D108" t="s">
-        <v>90</v>
-      </c>
       <c r="E108" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="F108" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G108" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="I108" t="s">
-        <v>28</v>
+        <v>56</v>
       </c>
       <c r="J108" t="s">
         <v>19</v>
@@ -3853,22 +3856,22 @@
         <v>72</v>
       </c>
       <c r="C109" t="s">
+        <v>88</v>
+      </c>
+      <c r="D109" t="s">
         <v>89</v>
       </c>
-      <c r="D109" t="s">
-        <v>90</v>
-      </c>
       <c r="E109" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="F109" t="s">
+        <v>85</v>
+      </c>
+      <c r="G109" t="s">
         <v>92</v>
       </c>
-      <c r="G109" t="s">
-        <v>94</v>
-      </c>
       <c r="I109" t="s">
-        <v>54</v>
+        <v>18</v>
       </c>
       <c r="J109" t="s">
         <v>19</v>
@@ -3882,22 +3885,22 @@
         <v>72</v>
       </c>
       <c r="C110" t="s">
+        <v>88</v>
+      </c>
+      <c r="D110" t="s">
         <v>89</v>
       </c>
-      <c r="D110" t="s">
-        <v>90</v>
-      </c>
       <c r="E110" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="F110" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="G110" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="I110" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="J110" t="s">
         <v>19</v>
@@ -3911,22 +3914,22 @@
         <v>72</v>
       </c>
       <c r="C111" t="s">
+        <v>88</v>
+      </c>
+      <c r="D111" t="s">
         <v>89</v>
       </c>
-      <c r="D111" t="s">
-        <v>90</v>
-      </c>
       <c r="E111" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="F111" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="G111" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="I111" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="J111" t="s">
         <v>19</v>
@@ -3940,22 +3943,22 @@
         <v>72</v>
       </c>
       <c r="C112" t="s">
+        <v>88</v>
+      </c>
+      <c r="D112" t="s">
         <v>89</v>
       </c>
-      <c r="D112" t="s">
-        <v>90</v>
-      </c>
       <c r="E112" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="F112" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="G112" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="I112" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="J112" t="s">
         <v>19</v>
@@ -3969,22 +3972,22 @@
         <v>72</v>
       </c>
       <c r="C113" t="s">
+        <v>88</v>
+      </c>
+      <c r="D113" t="s">
         <v>89</v>
       </c>
-      <c r="D113" t="s">
+      <c r="E113" t="s">
         <v>90</v>
       </c>
-      <c r="E113" t="s">
-        <v>81</v>
-      </c>
       <c r="F113" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="G113" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="I113" t="s">
-        <v>52</v>
+        <v>22</v>
       </c>
       <c r="J113" t="s">
         <v>19</v>
@@ -3998,22 +4001,22 @@
         <v>72</v>
       </c>
       <c r="C114" t="s">
+        <v>88</v>
+      </c>
+      <c r="D114" t="s">
         <v>89</v>
       </c>
-      <c r="D114" t="s">
-        <v>90</v>
-      </c>
       <c r="E114" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F114" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G114" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="I114" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="J114" t="s">
         <v>19</v>
@@ -4027,22 +4030,22 @@
         <v>72</v>
       </c>
       <c r="C115" t="s">
+        <v>88</v>
+      </c>
+      <c r="D115" t="s">
         <v>89</v>
       </c>
-      <c r="D115" t="s">
-        <v>90</v>
-      </c>
       <c r="E115" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="F115" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="G115" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="I115" t="s">
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="J115" t="s">
         <v>19</v>
@@ -4056,25 +4059,25 @@
         <v>72</v>
       </c>
       <c r="C116" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="D116" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="E116" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F116" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G116" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="H116" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="I116" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="J116" t="s">
         <v>19</v>
@@ -4088,22 +4091,22 @@
         <v>72</v>
       </c>
       <c r="C117" t="s">
+        <v>82</v>
+      </c>
+      <c r="D117" t="s">
+        <v>83</v>
+      </c>
+      <c r="E117" t="s">
         <v>75</v>
       </c>
-      <c r="D117" t="s">
+      <c r="F117" t="s">
         <v>76</v>
       </c>
-      <c r="E117" t="s">
-        <v>89</v>
-      </c>
-      <c r="F117" t="s">
-        <v>90</v>
-      </c>
       <c r="G117" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="H117" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="I117" t="s">
         <v>37</v>
@@ -4120,25 +4123,25 @@
         <v>72</v>
       </c>
       <c r="C118" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="D118" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="E118" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="F118" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="G118" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="H118" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="I118" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="J118" t="s">
         <v>19</v>
@@ -4152,25 +4155,25 @@
         <v>72</v>
       </c>
       <c r="C119" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="D119" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="E119" t="s">
+        <v>78</v>
+      </c>
+      <c r="F119" t="s">
         <v>79</v>
       </c>
-      <c r="F119" t="s">
-        <v>80</v>
-      </c>
       <c r="G119" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="H119" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="I119" t="s">
-        <v>54</v>
+        <v>25</v>
       </c>
       <c r="J119" t="s">
         <v>19</v>
@@ -4184,25 +4187,25 @@
         <v>72</v>
       </c>
       <c r="C120" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="D120" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="E120" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="F120" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="G120" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="H120" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="I120" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="J120" t="s">
         <v>19</v>
@@ -4216,10 +4219,10 @@
         <v>72</v>
       </c>
       <c r="C121" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="D121" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="E121" t="s">
         <v>73</v>
@@ -4228,13 +4231,13 @@
         <v>74</v>
       </c>
       <c r="G121" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="H121" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="I121" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="J121" t="s">
         <v>19</v>
@@ -4248,25 +4251,25 @@
         <v>72</v>
       </c>
       <c r="C122" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="D122" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="E122" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="F122" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="G122" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="H122" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="I122" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="J122" t="s">
         <v>19</v>
@@ -4280,25 +4283,25 @@
         <v>72</v>
       </c>
       <c r="C123" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="D123" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="E123" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="F123" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="G123" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="H123" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="I123" t="s">
-        <v>28</v>
+        <v>60</v>
       </c>
       <c r="J123" t="s">
         <v>19</v>
@@ -4312,25 +4315,25 @@
         <v>72</v>
       </c>
       <c r="C124" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D124" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E124" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F124" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="G124" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="H124" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="I124" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="J124" t="s">
         <v>19</v>
@@ -4344,25 +4347,25 @@
         <v>72</v>
       </c>
       <c r="C125" t="s">
+        <v>80</v>
+      </c>
+      <c r="D125" t="s">
+        <v>81</v>
+      </c>
+      <c r="E125" t="s">
+        <v>82</v>
+      </c>
+      <c r="F125" t="s">
         <v>83</v>
       </c>
-      <c r="D125" t="s">
-        <v>84</v>
-      </c>
-      <c r="E125" t="s">
-        <v>89</v>
-      </c>
-      <c r="F125" t="s">
-        <v>90</v>
-      </c>
       <c r="G125" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="H125" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="I125" t="s">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="J125" t="s">
         <v>19</v>
@@ -4376,25 +4379,25 @@
         <v>72</v>
       </c>
       <c r="C126" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D126" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E126" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="F126" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="G126" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="H126" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="I126" t="s">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="J126" t="s">
         <v>19</v>
@@ -4408,25 +4411,25 @@
         <v>72</v>
       </c>
       <c r="C127" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D127" t="s">
+        <v>81</v>
+      </c>
+      <c r="E127" t="s">
         <v>84</v>
       </c>
-      <c r="E127" t="s">
-        <v>79</v>
-      </c>
       <c r="F127" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="G127" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="H127" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="I127" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="J127" t="s">
         <v>19</v>
@@ -4440,25 +4443,25 @@
         <v>72</v>
       </c>
       <c r="C128" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D128" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E128" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="F128" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="G128" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="H128" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="I128" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="J128" t="s">
         <v>19</v>
@@ -4472,25 +4475,25 @@
         <v>72</v>
       </c>
       <c r="C129" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D129" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E129" t="s">
+        <v>90</v>
+      </c>
+      <c r="F129" t="s">
         <v>91</v>
       </c>
-      <c r="F129" t="s">
-        <v>92</v>
-      </c>
       <c r="G129" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="H129" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="I129" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="J129" t="s">
         <v>19</v>
@@ -4504,10 +4507,10 @@
         <v>72</v>
       </c>
       <c r="C130" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D130" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E130" t="s">
         <v>75</v>
@@ -4516,13 +4519,13 @@
         <v>76</v>
       </c>
       <c r="G130" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="H130" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="I130" t="s">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="J130" t="s">
         <v>19</v>
@@ -4536,31 +4539,31 @@
         <v>72</v>
       </c>
       <c r="C131" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D131" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E131" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F131" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G131" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="H131" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="I131" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="J131" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="132" x14ac:dyDescent="0.25" spans="1:9">
+    <row r="132" x14ac:dyDescent="0.25" spans="1:10">
       <c r="A132" t="s">
         <v>71</v>
       </c>
@@ -4568,28 +4571,31 @@
         <v>72</v>
       </c>
       <c r="C132" t="s">
+        <v>86</v>
+      </c>
+      <c r="D132" t="s">
         <v>87</v>
       </c>
-      <c r="D132" t="s">
-        <v>88</v>
-      </c>
       <c r="E132" t="s">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="F132" t="s">
-        <v>74</v>
+        <v>91</v>
       </c>
       <c r="G132" t="s">
-        <v>99</v>
+        <v>97</v>
+      </c>
+      <c r="H132" t="s">
+        <v>98</v>
       </c>
       <c r="I132" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="J132" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="133" x14ac:dyDescent="0.25" spans="1:9">
+    <row r="133" x14ac:dyDescent="0.25" spans="1:10">
       <c r="A133" t="s">
         <v>71</v>
       </c>
@@ -4597,28 +4603,31 @@
         <v>72</v>
       </c>
       <c r="C133" t="s">
+        <v>86</v>
+      </c>
+      <c r="D133" t="s">
         <v>87</v>
       </c>
-      <c r="D133" t="s">
-        <v>88</v>
-      </c>
       <c r="E133" t="s">
+        <v>82</v>
+      </c>
+      <c r="F133" t="s">
         <v>83</v>
       </c>
-      <c r="F133" t="s">
-        <v>84</v>
-      </c>
       <c r="G133" t="s">
-        <v>99</v>
+        <v>97</v>
+      </c>
+      <c r="H133" t="s">
+        <v>98</v>
       </c>
       <c r="I133" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="J133" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="134" x14ac:dyDescent="0.25" spans="1:9">
+    <row r="134" x14ac:dyDescent="0.25" spans="1:10">
       <c r="A134" t="s">
         <v>71</v>
       </c>
@@ -4626,28 +4635,31 @@
         <v>72</v>
       </c>
       <c r="C134" t="s">
+        <v>86</v>
+      </c>
+      <c r="D134" t="s">
         <v>87</v>
       </c>
-      <c r="D134" t="s">
-        <v>88</v>
-      </c>
       <c r="E134" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="F134" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="G134" t="s">
-        <v>99</v>
+        <v>97</v>
+      </c>
+      <c r="H134" t="s">
+        <v>98</v>
       </c>
       <c r="I134" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="J134" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="135" x14ac:dyDescent="0.25" spans="1:9">
+    <row r="135" x14ac:dyDescent="0.25" spans="1:10">
       <c r="A135" t="s">
         <v>71</v>
       </c>
@@ -4655,28 +4667,31 @@
         <v>72</v>
       </c>
       <c r="C135" t="s">
+        <v>86</v>
+      </c>
+      <c r="D135" t="s">
         <v>87</v>
       </c>
-      <c r="D135" t="s">
-        <v>88</v>
-      </c>
       <c r="E135" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="F135" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="G135" t="s">
-        <v>99</v>
+        <v>97</v>
+      </c>
+      <c r="H135" t="s">
+        <v>98</v>
       </c>
       <c r="I135" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="J135" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="136" x14ac:dyDescent="0.25" spans="1:9">
+    <row r="136" x14ac:dyDescent="0.25" spans="1:10">
       <c r="A136" t="s">
         <v>71</v>
       </c>
@@ -4684,28 +4699,31 @@
         <v>72</v>
       </c>
       <c r="C136" t="s">
+        <v>86</v>
+      </c>
+      <c r="D136" t="s">
         <v>87</v>
       </c>
-      <c r="D136" t="s">
-        <v>88</v>
-      </c>
       <c r="E136" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="F136" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="G136" t="s">
-        <v>99</v>
+        <v>97</v>
+      </c>
+      <c r="H136" t="s">
+        <v>98</v>
       </c>
       <c r="I136" t="s">
-        <v>25</v>
+        <v>57</v>
       </c>
       <c r="J136" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="137" x14ac:dyDescent="0.25" spans="1:9">
+    <row r="137" x14ac:dyDescent="0.25" spans="1:10">
       <c r="A137" t="s">
         <v>71</v>
       </c>
@@ -4713,28 +4731,31 @@
         <v>72</v>
       </c>
       <c r="C137" t="s">
+        <v>86</v>
+      </c>
+      <c r="D137" t="s">
         <v>87</v>
       </c>
-      <c r="D137" t="s">
-        <v>88</v>
-      </c>
       <c r="E137" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="F137" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="G137" t="s">
-        <v>99</v>
+        <v>97</v>
+      </c>
+      <c r="H137" t="s">
+        <v>98</v>
       </c>
       <c r="I137" t="s">
-        <v>58</v>
+        <v>34</v>
       </c>
       <c r="J137" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="138" x14ac:dyDescent="0.25" spans="1:9">
+    <row r="138" x14ac:dyDescent="0.25" spans="1:10">
       <c r="A138" t="s">
         <v>71</v>
       </c>
@@ -4742,28 +4763,31 @@
         <v>72</v>
       </c>
       <c r="C138" t="s">
+        <v>86</v>
+      </c>
+      <c r="D138" t="s">
         <v>87</v>
       </c>
-      <c r="D138" t="s">
-        <v>88</v>
-      </c>
       <c r="E138" t="s">
+        <v>78</v>
+      </c>
+      <c r="F138" t="s">
         <v>79</v>
       </c>
-      <c r="F138" t="s">
-        <v>80</v>
-      </c>
       <c r="G138" t="s">
-        <v>99</v>
+        <v>97</v>
+      </c>
+      <c r="H138" t="s">
+        <v>98</v>
       </c>
       <c r="I138" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="J138" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="139" x14ac:dyDescent="0.25" spans="1:9">
+    <row r="139" x14ac:dyDescent="0.25" spans="1:10">
       <c r="A139" t="s">
         <v>71</v>
       </c>
@@ -4771,28 +4795,31 @@
         <v>72</v>
       </c>
       <c r="C139" t="s">
+        <v>86</v>
+      </c>
+      <c r="D139" t="s">
         <v>87</v>
       </c>
-      <c r="D139" t="s">
+      <c r="E139" t="s">
         <v>88</v>
       </c>
-      <c r="E139" t="s">
-        <v>75</v>
-      </c>
       <c r="F139" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="G139" t="s">
-        <v>99</v>
+        <v>97</v>
+      </c>
+      <c r="H139" t="s">
+        <v>98</v>
       </c>
       <c r="I139" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="J139" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="140" x14ac:dyDescent="0.25" spans="1:10">
+    <row r="140" x14ac:dyDescent="0.25" spans="1:9">
       <c r="A140" t="s">
         <v>71</v>
       </c>
@@ -4800,31 +4827,28 @@
         <v>72</v>
       </c>
       <c r="C140" t="s">
+        <v>90</v>
+      </c>
+      <c r="D140" t="s">
         <v>91</v>
       </c>
-      <c r="D140" t="s">
-        <v>92</v>
-      </c>
       <c r="E140" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="F140" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="G140" t="s">
-        <v>100</v>
-      </c>
-      <c r="H140" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="I140" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="J140" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="141" x14ac:dyDescent="0.25" spans="1:10">
+    <row r="141" x14ac:dyDescent="0.25" spans="1:9">
       <c r="A141" t="s">
         <v>71</v>
       </c>
@@ -4832,31 +4856,28 @@
         <v>72</v>
       </c>
       <c r="C141" t="s">
+        <v>90</v>
+      </c>
+      <c r="D141" t="s">
         <v>91</v>
       </c>
-      <c r="D141" t="s">
-        <v>92</v>
-      </c>
       <c r="E141" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="F141" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="G141" t="s">
-        <v>100</v>
-      </c>
-      <c r="H141" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="I141" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="J141" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="142" x14ac:dyDescent="0.25" spans="1:10">
+    <row r="142" x14ac:dyDescent="0.25" spans="1:9">
       <c r="A142" t="s">
         <v>71</v>
       </c>
@@ -4864,31 +4885,28 @@
         <v>72</v>
       </c>
       <c r="C142" t="s">
+        <v>90</v>
+      </c>
+      <c r="D142" t="s">
         <v>91</v>
       </c>
-      <c r="D142" t="s">
-        <v>92</v>
-      </c>
       <c r="E142" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="F142" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="G142" t="s">
-        <v>100</v>
-      </c>
-      <c r="H142" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="I142" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J142" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="143" x14ac:dyDescent="0.25" spans="1:10">
+    <row r="143" x14ac:dyDescent="0.25" spans="1:9">
       <c r="A143" t="s">
         <v>71</v>
       </c>
@@ -4896,31 +4914,28 @@
         <v>72</v>
       </c>
       <c r="C143" t="s">
+        <v>90</v>
+      </c>
+      <c r="D143" t="s">
         <v>91</v>
       </c>
-      <c r="D143" t="s">
-        <v>92</v>
-      </c>
       <c r="E143" t="s">
+        <v>78</v>
+      </c>
+      <c r="F143" t="s">
         <v>79</v>
       </c>
-      <c r="F143" t="s">
-        <v>80</v>
-      </c>
       <c r="G143" t="s">
-        <v>100</v>
-      </c>
-      <c r="H143" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="I143" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="J143" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="144" x14ac:dyDescent="0.25" spans="1:10">
+    <row r="144" x14ac:dyDescent="0.25" spans="1:9">
       <c r="A144" t="s">
         <v>71</v>
       </c>
@@ -4928,31 +4943,28 @@
         <v>72</v>
       </c>
       <c r="C144" t="s">
+        <v>90</v>
+      </c>
+      <c r="D144" t="s">
         <v>91</v>
       </c>
-      <c r="D144" t="s">
-        <v>92</v>
-      </c>
       <c r="E144" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="F144" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="G144" t="s">
-        <v>100</v>
-      </c>
-      <c r="H144" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="I144" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="J144" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="145" x14ac:dyDescent="0.25" spans="1:10">
+    <row r="145" x14ac:dyDescent="0.25" spans="1:9">
       <c r="A145" t="s">
         <v>71</v>
       </c>
@@ -4960,31 +4972,28 @@
         <v>72</v>
       </c>
       <c r="C145" t="s">
+        <v>90</v>
+      </c>
+      <c r="D145" t="s">
         <v>91</v>
       </c>
-      <c r="D145" t="s">
-        <v>92</v>
-      </c>
       <c r="E145" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="F145" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="G145" t="s">
-        <v>100</v>
-      </c>
-      <c r="H145" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="I145" t="s">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="J145" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="146" x14ac:dyDescent="0.25" spans="1:10">
+    <row r="146" x14ac:dyDescent="0.25" spans="1:9">
       <c r="A146" t="s">
         <v>71</v>
       </c>
@@ -4992,31 +5001,28 @@
         <v>72</v>
       </c>
       <c r="C146" t="s">
+        <v>90</v>
+      </c>
+      <c r="D146" t="s">
         <v>91</v>
       </c>
-      <c r="D146" t="s">
-        <v>92</v>
-      </c>
       <c r="E146" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="F146" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="G146" t="s">
-        <v>100</v>
-      </c>
-      <c r="H146" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="I146" t="s">
-        <v>22</v>
+        <v>57</v>
       </c>
       <c r="J146" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="147" x14ac:dyDescent="0.25" spans="1:10">
+    <row r="147" x14ac:dyDescent="0.25" spans="1:9">
       <c r="A147" t="s">
         <v>71</v>
       </c>
@@ -5024,25 +5030,22 @@
         <v>72</v>
       </c>
       <c r="C147" t="s">
+        <v>90</v>
+      </c>
+      <c r="D147" t="s">
         <v>91</v>
       </c>
-      <c r="D147" t="s">
-        <v>92</v>
-      </c>
       <c r="E147" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="F147" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="G147" t="s">
-        <v>100</v>
-      </c>
-      <c r="H147" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="I147" t="s">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="J147" t="s">
         <v>19</v>
@@ -5056,25 +5059,25 @@
         <v>72</v>
       </c>
       <c r="C148" t="s">
+        <v>78</v>
+      </c>
+      <c r="D148" t="s">
         <v>79</v>
       </c>
-      <c r="D148" t="s">
-        <v>80</v>
-      </c>
       <c r="E148" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="F148" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="G148" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="H148" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="I148" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="J148" t="s">
         <v>19</v>
@@ -5088,25 +5091,25 @@
         <v>72</v>
       </c>
       <c r="C149" t="s">
+        <v>78</v>
+      </c>
+      <c r="D149" t="s">
         <v>79</v>
       </c>
-      <c r="D149" t="s">
-        <v>80</v>
-      </c>
       <c r="E149" t="s">
+        <v>84</v>
+      </c>
+      <c r="F149" t="s">
         <v>85</v>
       </c>
-      <c r="F149" t="s">
-        <v>86</v>
-      </c>
       <c r="G149" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="H149" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="I149" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="J149" t="s">
         <v>19</v>
@@ -5120,25 +5123,25 @@
         <v>72</v>
       </c>
       <c r="C150" t="s">
+        <v>78</v>
+      </c>
+      <c r="D150" t="s">
         <v>79</v>
       </c>
-      <c r="D150" t="s">
-        <v>80</v>
-      </c>
       <c r="E150" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="F150" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="G150" t="s">
+        <v>100</v>
+      </c>
+      <c r="H150" t="s">
+        <v>101</v>
+      </c>
+      <c r="I150" t="s">
         <v>102</v>
-      </c>
-      <c r="H150" t="s">
-        <v>103</v>
-      </c>
-      <c r="I150" t="s">
-        <v>37</v>
       </c>
       <c r="J150" t="s">
         <v>19</v>
@@ -5152,22 +5155,22 @@
         <v>72</v>
       </c>
       <c r="C151" t="s">
+        <v>78</v>
+      </c>
+      <c r="D151" t="s">
         <v>79</v>
       </c>
-      <c r="D151" t="s">
-        <v>80</v>
-      </c>
       <c r="E151" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="F151" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="G151" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="H151" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="I151" t="s">
         <v>18</v>
@@ -5184,25 +5187,25 @@
         <v>72</v>
       </c>
       <c r="C152" t="s">
+        <v>78</v>
+      </c>
+      <c r="D152" t="s">
         <v>79</v>
       </c>
-      <c r="D152" t="s">
-        <v>80</v>
-      </c>
       <c r="E152" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="F152" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="G152" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="H152" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="I152" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="J152" t="s">
         <v>19</v>
@@ -5216,25 +5219,25 @@
         <v>72</v>
       </c>
       <c r="C153" t="s">
+        <v>78</v>
+      </c>
+      <c r="D153" t="s">
         <v>79</v>
       </c>
-      <c r="D153" t="s">
-        <v>80</v>
-      </c>
       <c r="E153" t="s">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="F153" t="s">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="G153" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="H153" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="I153" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="J153" t="s">
         <v>19</v>
@@ -5248,25 +5251,25 @@
         <v>72</v>
       </c>
       <c r="C154" t="s">
+        <v>78</v>
+      </c>
+      <c r="D154" t="s">
         <v>79</v>
       </c>
-      <c r="D154" t="s">
-        <v>80</v>
-      </c>
       <c r="E154" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="F154" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="G154" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="H154" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="I154" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J154" t="s">
         <v>19</v>
@@ -5280,25 +5283,25 @@
         <v>72</v>
       </c>
       <c r="C155" t="s">
+        <v>78</v>
+      </c>
+      <c r="D155" t="s">
         <v>79</v>
       </c>
-      <c r="D155" t="s">
+      <c r="E155" t="s">
         <v>80</v>
       </c>
-      <c r="E155" t="s">
-        <v>73</v>
-      </c>
       <c r="F155" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="G155" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="H155" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="I155" t="s">
-        <v>31</v>
+        <v>57</v>
       </c>
       <c r="J155" t="s">
         <v>19</v>
@@ -5312,25 +5315,25 @@
         <v>72</v>
       </c>
       <c r="C156" t="s">
+        <v>84</v>
+      </c>
+      <c r="D156" t="s">
         <v>85</v>
       </c>
-      <c r="D156" t="s">
-        <v>86</v>
-      </c>
       <c r="E156" t="s">
+        <v>90</v>
+      </c>
+      <c r="F156" t="s">
         <v>91</v>
       </c>
-      <c r="F156" t="s">
-        <v>92</v>
-      </c>
       <c r="G156" t="s">
-        <v>64</v>
+        <v>103</v>
       </c>
       <c r="H156" t="s">
-        <v>65</v>
+        <v>104</v>
       </c>
       <c r="I156" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="J156" t="s">
         <v>19</v>
@@ -5344,25 +5347,25 @@
         <v>72</v>
       </c>
       <c r="C157" t="s">
+        <v>84</v>
+      </c>
+      <c r="D157" t="s">
         <v>85</v>
       </c>
-      <c r="D157" t="s">
-        <v>86</v>
-      </c>
       <c r="E157" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F157" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="G157" t="s">
-        <v>64</v>
+        <v>103</v>
       </c>
       <c r="H157" t="s">
-        <v>65</v>
+        <v>104</v>
       </c>
       <c r="I157" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="J157" t="s">
         <v>19</v>
@@ -5376,25 +5379,25 @@
         <v>72</v>
       </c>
       <c r="C158" t="s">
+        <v>84</v>
+      </c>
+      <c r="D158" t="s">
         <v>85</v>
       </c>
-      <c r="D158" t="s">
-        <v>86</v>
-      </c>
       <c r="E158" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F158" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G158" t="s">
-        <v>64</v>
+        <v>103</v>
       </c>
       <c r="H158" t="s">
-        <v>65</v>
+        <v>104</v>
       </c>
       <c r="I158" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="J158" t="s">
         <v>19</v>
@@ -5408,25 +5411,25 @@
         <v>72</v>
       </c>
       <c r="C159" t="s">
+        <v>84</v>
+      </c>
+      <c r="D159" t="s">
         <v>85</v>
       </c>
-      <c r="D159" t="s">
+      <c r="E159" t="s">
         <v>86</v>
       </c>
-      <c r="E159" t="s">
-        <v>79</v>
-      </c>
       <c r="F159" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="G159" t="s">
-        <v>64</v>
+        <v>103</v>
       </c>
       <c r="H159" t="s">
-        <v>65</v>
+        <v>104</v>
       </c>
       <c r="I159" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="J159" t="s">
         <v>19</v>
@@ -5440,25 +5443,25 @@
         <v>72</v>
       </c>
       <c r="C160" t="s">
+        <v>84</v>
+      </c>
+      <c r="D160" t="s">
         <v>85</v>
       </c>
-      <c r="D160" t="s">
-        <v>86</v>
-      </c>
       <c r="E160" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="F160" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="G160" t="s">
-        <v>64</v>
+        <v>103</v>
       </c>
       <c r="H160" t="s">
-        <v>65</v>
+        <v>104</v>
       </c>
       <c r="I160" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="J160" t="s">
         <v>19</v>
@@ -5472,25 +5475,25 @@
         <v>72</v>
       </c>
       <c r="C161" t="s">
+        <v>84</v>
+      </c>
+      <c r="D161" t="s">
         <v>85</v>
       </c>
-      <c r="D161" t="s">
-        <v>86</v>
-      </c>
       <c r="E161" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F161" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G161" t="s">
-        <v>64</v>
+        <v>103</v>
       </c>
       <c r="H161" t="s">
-        <v>65</v>
+        <v>104</v>
       </c>
       <c r="I161" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="J161" t="s">
         <v>19</v>
@@ -5504,25 +5507,25 @@
         <v>72</v>
       </c>
       <c r="C162" t="s">
+        <v>84</v>
+      </c>
+      <c r="D162" t="s">
         <v>85</v>
       </c>
-      <c r="D162" t="s">
-        <v>86</v>
-      </c>
       <c r="E162" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="F162" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="G162" t="s">
-        <v>64</v>
+        <v>103</v>
       </c>
       <c r="H162" t="s">
-        <v>65</v>
+        <v>104</v>
       </c>
       <c r="I162" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="J162" t="s">
         <v>19</v>
@@ -5536,25 +5539,25 @@
         <v>72</v>
       </c>
       <c r="C163" t="s">
+        <v>84</v>
+      </c>
+      <c r="D163" t="s">
         <v>85</v>
       </c>
-      <c r="D163" t="s">
-        <v>86</v>
-      </c>
       <c r="E163" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="F163" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="G163" t="s">
-        <v>64</v>
+        <v>103</v>
       </c>
       <c r="H163" t="s">
-        <v>65</v>
+        <v>104</v>
       </c>
       <c r="I163" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="J163" t="s">
         <v>19</v>
@@ -5562,31 +5565,31 @@
     </row>
     <row r="164" x14ac:dyDescent="0.25" spans="1:10">
       <c r="A164" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B164" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C164" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D164" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E164" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F164" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G164" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="H164" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="I164" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="J164" t="s">
         <v>19</v>
@@ -5594,31 +5597,31 @@
     </row>
     <row r="165" x14ac:dyDescent="0.25" spans="1:10">
       <c r="A165" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B165" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C165" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D165" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E165" t="s">
+        <v>113</v>
+      </c>
+      <c r="F165" t="s">
+        <v>114</v>
+      </c>
+      <c r="G165" t="s">
+        <v>111</v>
+      </c>
+      <c r="H165" t="s">
         <v>112</v>
       </c>
-      <c r="F165" t="s">
-        <v>113</v>
-      </c>
-      <c r="G165" t="s">
-        <v>110</v>
-      </c>
-      <c r="H165" t="s">
-        <v>111</v>
-      </c>
       <c r="I165" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="J165" t="s">
         <v>19</v>
@@ -5626,31 +5629,31 @@
     </row>
     <row r="166" x14ac:dyDescent="0.25" spans="1:10">
       <c r="A166" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B166" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C166" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D166" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E166" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F166" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G166" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="H166" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="I166" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="J166" t="s">
         <v>19</v>
@@ -5658,31 +5661,31 @@
     </row>
     <row r="167" x14ac:dyDescent="0.25" spans="1:10">
       <c r="A167" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B167" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C167" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D167" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E167" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F167" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G167" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="H167" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="I167" t="s">
-        <v>31</v>
+        <v>63</v>
       </c>
       <c r="J167" t="s">
         <v>19</v>
@@ -5690,31 +5693,31 @@
     </row>
     <row r="168" x14ac:dyDescent="0.25" spans="1:10">
       <c r="A168" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B168" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C168" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D168" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E168" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F168" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="G168" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="H168" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="I168" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="J168" t="s">
         <v>19</v>
@@ -5722,31 +5725,31 @@
     </row>
     <row r="169" x14ac:dyDescent="0.25" spans="1:10">
       <c r="A169" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B169" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C169" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D169" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E169" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F169" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="G169" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="H169" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="I169" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="J169" t="s">
         <v>19</v>
@@ -5754,31 +5757,31 @@
     </row>
     <row r="170" x14ac:dyDescent="0.25" spans="1:10">
       <c r="A170" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B170" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C170" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D170" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E170" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F170" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G170" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="H170" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="I170" t="s">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="J170" t="s">
         <v>19</v>
@@ -5786,28 +5789,28 @@
     </row>
     <row r="171" x14ac:dyDescent="0.25" spans="1:10">
       <c r="A171" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B171" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C171" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D171" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E171" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F171" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G171" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="H171" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="I171" t="s">
         <v>48</v>
@@ -5818,31 +5821,31 @@
     </row>
     <row r="172" x14ac:dyDescent="0.25" spans="1:10">
       <c r="A172" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B172" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C172" t="s">
+        <v>117</v>
+      </c>
+      <c r="D172" t="s">
+        <v>118</v>
+      </c>
+      <c r="E172" t="s">
+        <v>107</v>
+      </c>
+      <c r="F172" t="s">
         <v>108</v>
       </c>
-      <c r="D172" t="s">
-        <v>109</v>
-      </c>
-      <c r="E172" t="s">
-        <v>112</v>
-      </c>
-      <c r="F172" t="s">
-        <v>113</v>
-      </c>
       <c r="G172" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H172" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="I172" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="J172" t="s">
         <v>19</v>
@@ -5850,31 +5853,31 @@
     </row>
     <row r="173" x14ac:dyDescent="0.25" spans="1:10">
       <c r="A173" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B173" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C173" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="D173" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="E173" t="s">
+        <v>119</v>
+      </c>
+      <c r="F173" t="s">
         <v>120</v>
       </c>
-      <c r="F173" t="s">
-        <v>121</v>
-      </c>
       <c r="G173" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H173" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="I173" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="J173" t="s">
         <v>19</v>
@@ -5882,31 +5885,31 @@
     </row>
     <row r="174" x14ac:dyDescent="0.25" spans="1:10">
       <c r="A174" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B174" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C174" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="D174" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="E174" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="F174" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="G174" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H174" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="I174" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="J174" t="s">
         <v>19</v>
@@ -5914,31 +5917,31 @@
     </row>
     <row r="175" x14ac:dyDescent="0.25" spans="1:10">
       <c r="A175" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B175" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C175" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="D175" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="E175" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="F175" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="G175" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H175" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="I175" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="J175" t="s">
         <v>19</v>
@@ -5946,31 +5949,31 @@
     </row>
     <row r="176" x14ac:dyDescent="0.25" spans="1:10">
       <c r="A176" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B176" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C176" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="D176" t="s">
+        <v>118</v>
+      </c>
+      <c r="E176" t="s">
         <v>109</v>
       </c>
-      <c r="E176" t="s">
-        <v>114</v>
-      </c>
       <c r="F176" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="G176" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H176" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="I176" t="s">
-        <v>31</v>
+        <v>57</v>
       </c>
       <c r="J176" t="s">
         <v>19</v>
@@ -5978,31 +5981,31 @@
     </row>
     <row r="177" x14ac:dyDescent="0.25" spans="1:10">
       <c r="A177" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B177" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C177" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="D177" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="E177" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="F177" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="G177" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H177" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="I177" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="J177" t="s">
         <v>19</v>
@@ -6010,31 +6013,31 @@
     </row>
     <row r="178" x14ac:dyDescent="0.25" spans="1:10">
       <c r="A178" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B178" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C178" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="D178" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="E178" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="F178" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="G178" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H178" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="I178" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="J178" t="s">
         <v>19</v>
@@ -6042,31 +6045,31 @@
     </row>
     <row r="179" x14ac:dyDescent="0.25" spans="1:10">
       <c r="A179" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B179" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C179" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="D179" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="E179" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="F179" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="G179" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H179" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="I179" t="s">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="J179" t="s">
         <v>19</v>
@@ -6074,31 +6077,31 @@
     </row>
     <row r="180" x14ac:dyDescent="0.25" spans="1:10">
       <c r="A180" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B180" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C180" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D180" t="s">
+        <v>114</v>
+      </c>
+      <c r="E180" t="s">
         <v>117</v>
       </c>
-      <c r="E180" t="s">
+      <c r="F180" t="s">
         <v>118</v>
       </c>
-      <c r="F180" t="s">
-        <v>119</v>
-      </c>
       <c r="G180" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="H180" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="I180" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="J180" t="s">
         <v>19</v>
@@ -6106,31 +6109,31 @@
     </row>
     <row r="181" x14ac:dyDescent="0.25" spans="1:10">
       <c r="A181" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B181" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C181" t="s">
+        <v>113</v>
+      </c>
+      <c r="D181" t="s">
+        <v>114</v>
+      </c>
+      <c r="E181" t="s">
+        <v>115</v>
+      </c>
+      <c r="F181" t="s">
         <v>116</v>
       </c>
-      <c r="D181" t="s">
-        <v>117</v>
-      </c>
-      <c r="E181" t="s">
-        <v>122</v>
-      </c>
-      <c r="F181" t="s">
-        <v>123</v>
-      </c>
       <c r="G181" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="H181" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="I181" t="s">
-        <v>53</v>
+        <v>18</v>
       </c>
       <c r="J181" t="s">
         <v>19</v>
@@ -6138,31 +6141,31 @@
     </row>
     <row r="182" x14ac:dyDescent="0.25" spans="1:10">
       <c r="A182" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B182" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C182" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D182" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E182" t="s">
-        <v>106</v>
+        <v>121</v>
       </c>
       <c r="F182" t="s">
-        <v>107</v>
+        <v>122</v>
       </c>
       <c r="G182" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="H182" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="I182" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="J182" t="s">
         <v>19</v>
@@ -6170,31 +6173,31 @@
     </row>
     <row r="183" x14ac:dyDescent="0.25" spans="1:10">
       <c r="A183" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B183" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C183" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D183" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E183" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F183" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G183" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="H183" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="I183" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="J183" t="s">
         <v>19</v>
@@ -6202,31 +6205,31 @@
     </row>
     <row r="184" x14ac:dyDescent="0.25" spans="1:10">
       <c r="A184" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B184" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C184" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D184" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E184" t="s">
-        <v>108</v>
+        <v>123</v>
       </c>
       <c r="F184" t="s">
-        <v>109</v>
+        <v>124</v>
       </c>
       <c r="G184" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="H184" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="I184" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="J184" t="s">
         <v>19</v>
@@ -6234,28 +6237,28 @@
     </row>
     <row r="185" x14ac:dyDescent="0.25" spans="1:10">
       <c r="A185" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B185" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C185" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D185" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E185" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="F185" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="G185" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="H185" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="I185" t="s">
         <v>43</v>
@@ -6266,31 +6269,31 @@
     </row>
     <row r="186" x14ac:dyDescent="0.25" spans="1:10">
       <c r="A186" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B186" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C186" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D186" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E186" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="F186" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="G186" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="H186" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="I186" t="s">
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="J186" t="s">
         <v>19</v>
@@ -6298,31 +6301,31 @@
     </row>
     <row r="187" x14ac:dyDescent="0.25" spans="1:10">
       <c r="A187" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B187" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C187" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D187" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E187" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="F187" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="G187" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="H187" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="I187" t="s">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="J187" t="s">
         <v>19</v>
@@ -6330,31 +6333,31 @@
     </row>
     <row r="188" x14ac:dyDescent="0.25" spans="1:10">
       <c r="A188" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B188" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C188" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="D188" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="E188" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="F188" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="G188" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="H188" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="I188" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="J188" t="s">
         <v>19</v>
@@ -6362,31 +6365,31 @@
     </row>
     <row r="189" x14ac:dyDescent="0.25" spans="1:10">
       <c r="A189" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B189" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C189" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="D189" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="E189" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="F189" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="G189" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="H189" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="I189" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="J189" t="s">
         <v>19</v>
@@ -6394,31 +6397,31 @@
     </row>
     <row r="190" x14ac:dyDescent="0.25" spans="1:10">
       <c r="A190" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B190" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C190" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="D190" t="s">
+        <v>116</v>
+      </c>
+      <c r="E190" t="s">
         <v>125</v>
       </c>
-      <c r="E190" t="s">
-        <v>116</v>
-      </c>
       <c r="F190" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="G190" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="H190" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="I190" t="s">
-        <v>54</v>
+        <v>28</v>
       </c>
       <c r="J190" t="s">
         <v>19</v>
@@ -6426,31 +6429,31 @@
     </row>
     <row r="191" x14ac:dyDescent="0.25" spans="1:10">
       <c r="A191" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B191" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C191" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="D191" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="E191" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="F191" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="G191" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="H191" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="I191" t="s">
-        <v>22</v>
+        <v>49</v>
       </c>
       <c r="J191" t="s">
         <v>19</v>
@@ -6458,31 +6461,31 @@
     </row>
     <row r="192" x14ac:dyDescent="0.25" spans="1:10">
       <c r="A192" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B192" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C192" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="D192" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="E192" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F192" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="G192" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="H192" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="I192" t="s">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="J192" t="s">
         <v>19</v>
@@ -6490,31 +6493,31 @@
     </row>
     <row r="193" x14ac:dyDescent="0.25" spans="1:10">
       <c r="A193" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B193" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C193" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="D193" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="E193" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="F193" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="G193" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="H193" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="I193" t="s">
-        <v>18</v>
+        <v>57</v>
       </c>
       <c r="J193" t="s">
         <v>19</v>
@@ -6522,31 +6525,31 @@
     </row>
     <row r="194" x14ac:dyDescent="0.25" spans="1:10">
       <c r="A194" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B194" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C194" t="s">
+        <v>115</v>
+      </c>
+      <c r="D194" t="s">
+        <v>116</v>
+      </c>
+      <c r="E194" t="s">
+        <v>123</v>
+      </c>
+      <c r="F194" t="s">
         <v>124</v>
       </c>
-      <c r="D194" t="s">
-        <v>125</v>
-      </c>
-      <c r="E194" t="s">
-        <v>118</v>
-      </c>
-      <c r="F194" t="s">
-        <v>119</v>
-      </c>
       <c r="G194" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="H194" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="I194" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="J194" t="s">
         <v>19</v>
@@ -6554,31 +6557,31 @@
     </row>
     <row r="195" x14ac:dyDescent="0.25" spans="1:10">
       <c r="A195" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B195" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C195" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="D195" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="E195" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="F195" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="G195" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="H195" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="I195" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="J195" t="s">
         <v>19</v>
@@ -6586,31 +6589,31 @@
     </row>
     <row r="196" x14ac:dyDescent="0.25" spans="1:10">
       <c r="A196" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B196" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C196" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="D196" t="s">
+        <v>110</v>
+      </c>
+      <c r="E196" t="s">
         <v>123</v>
       </c>
-      <c r="E196" t="s">
-        <v>108</v>
-      </c>
       <c r="F196" t="s">
-        <v>109</v>
+        <v>124</v>
       </c>
       <c r="G196" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H196" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="I196" t="s">
-        <v>57</v>
+        <v>22</v>
       </c>
       <c r="J196" t="s">
         <v>19</v>
@@ -6618,31 +6621,31 @@
     </row>
     <row r="197" x14ac:dyDescent="0.25" spans="1:10">
       <c r="A197" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B197" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C197" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="D197" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="E197" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="F197" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="G197" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H197" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="I197" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="J197" t="s">
         <v>19</v>
@@ -6650,31 +6653,31 @@
     </row>
     <row r="198" x14ac:dyDescent="0.25" spans="1:10">
       <c r="A198" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B198" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C198" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="D198" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="E198" t="s">
+        <v>113</v>
+      </c>
+      <c r="F198" t="s">
         <v>114</v>
       </c>
-      <c r="F198" t="s">
-        <v>115</v>
-      </c>
       <c r="G198" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H198" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="I198" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="J198" t="s">
         <v>19</v>
@@ -6682,31 +6685,31 @@
     </row>
     <row r="199" x14ac:dyDescent="0.25" spans="1:10">
       <c r="A199" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B199" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C199" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="D199" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="E199" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="F199" t="s">
-        <v>125</v>
+        <v>108</v>
       </c>
       <c r="G199" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H199" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="I199" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="J199" t="s">
         <v>19</v>
@@ -6714,31 +6717,31 @@
     </row>
     <row r="200" x14ac:dyDescent="0.25" spans="1:10">
       <c r="A200" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B200" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C200" t="s">
+        <v>109</v>
+      </c>
+      <c r="D200" t="s">
+        <v>110</v>
+      </c>
+      <c r="E200" t="s">
+        <v>121</v>
+      </c>
+      <c r="F200" t="s">
         <v>122</v>
       </c>
-      <c r="D200" t="s">
-        <v>123</v>
-      </c>
-      <c r="E200" t="s">
-        <v>116</v>
-      </c>
-      <c r="F200" t="s">
-        <v>117</v>
-      </c>
       <c r="G200" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H200" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="I200" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J200" t="s">
         <v>19</v>
@@ -6746,31 +6749,31 @@
     </row>
     <row r="201" x14ac:dyDescent="0.25" spans="1:10">
       <c r="A201" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B201" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C201" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="D201" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="E201" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="F201" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="G201" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H201" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="I201" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="J201" t="s">
         <v>19</v>
@@ -6778,31 +6781,31 @@
     </row>
     <row r="202" x14ac:dyDescent="0.25" spans="1:10">
       <c r="A202" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B202" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C202" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="D202" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="E202" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F202" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="G202" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H202" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="I202" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="J202" t="s">
         <v>19</v>
@@ -6810,263 +6813,287 @@
     </row>
     <row r="203" x14ac:dyDescent="0.25" spans="1:10">
       <c r="A203" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B203" t="s">
+        <v>106</v>
+      </c>
+      <c r="C203" t="s">
+        <v>109</v>
+      </c>
+      <c r="D203" t="s">
+        <v>110</v>
+      </c>
+      <c r="E203" t="s">
+        <v>125</v>
+      </c>
+      <c r="F203" t="s">
+        <v>126</v>
+      </c>
+      <c r="G203" t="s">
+        <v>133</v>
+      </c>
+      <c r="H203" t="s">
+        <v>134</v>
+      </c>
+      <c r="I203" t="s">
+        <v>31</v>
+      </c>
+      <c r="J203" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="204" x14ac:dyDescent="0.25" spans="1:10">
+      <c r="A204" t="s">
         <v>105</v>
       </c>
-      <c r="C203" t="s">
+      <c r="B204" t="s">
+        <v>106</v>
+      </c>
+      <c r="C204" t="s">
+        <v>125</v>
+      </c>
+      <c r="D204" t="s">
+        <v>126</v>
+      </c>
+      <c r="E204" t="s">
+        <v>109</v>
+      </c>
+      <c r="F204" t="s">
+        <v>110</v>
+      </c>
+      <c r="G204" t="s">
+        <v>135</v>
+      </c>
+      <c r="H204" t="s">
+        <v>136</v>
+      </c>
+      <c r="I204" t="s">
+        <v>18</v>
+      </c>
+      <c r="J204" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="205" x14ac:dyDescent="0.25" spans="1:10">
+      <c r="A205" t="s">
+        <v>105</v>
+      </c>
+      <c r="B205" t="s">
+        <v>106</v>
+      </c>
+      <c r="C205" t="s">
+        <v>125</v>
+      </c>
+      <c r="D205" t="s">
+        <v>126</v>
+      </c>
+      <c r="E205" t="s">
+        <v>113</v>
+      </c>
+      <c r="F205" t="s">
+        <v>114</v>
+      </c>
+      <c r="G205" t="s">
+        <v>135</v>
+      </c>
+      <c r="H205" t="s">
+        <v>136</v>
+      </c>
+      <c r="I205" t="s">
+        <v>22</v>
+      </c>
+      <c r="J205" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="206" x14ac:dyDescent="0.25" spans="1:10">
+      <c r="A206" t="s">
+        <v>105</v>
+      </c>
+      <c r="B206" t="s">
+        <v>106</v>
+      </c>
+      <c r="C206" t="s">
+        <v>125</v>
+      </c>
+      <c r="D206" t="s">
+        <v>126</v>
+      </c>
+      <c r="E206" t="s">
+        <v>123</v>
+      </c>
+      <c r="F206" t="s">
+        <v>124</v>
+      </c>
+      <c r="G206" t="s">
+        <v>135</v>
+      </c>
+      <c r="H206" t="s">
+        <v>136</v>
+      </c>
+      <c r="I206" t="s">
+        <v>52</v>
+      </c>
+      <c r="J206" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="207" x14ac:dyDescent="0.25" spans="1:10">
+      <c r="A207" t="s">
+        <v>105</v>
+      </c>
+      <c r="B207" t="s">
+        <v>106</v>
+      </c>
+      <c r="C207" t="s">
+        <v>125</v>
+      </c>
+      <c r="D207" t="s">
+        <v>126</v>
+      </c>
+      <c r="E207" t="s">
+        <v>107</v>
+      </c>
+      <c r="F207" t="s">
+        <v>108</v>
+      </c>
+      <c r="G207" t="s">
+        <v>135</v>
+      </c>
+      <c r="H207" t="s">
+        <v>136</v>
+      </c>
+      <c r="I207" t="s">
+        <v>60</v>
+      </c>
+      <c r="J207" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="208" x14ac:dyDescent="0.25" spans="1:10">
+      <c r="A208" t="s">
+        <v>105</v>
+      </c>
+      <c r="B208" t="s">
+        <v>106</v>
+      </c>
+      <c r="C208" t="s">
+        <v>125</v>
+      </c>
+      <c r="D208" t="s">
+        <v>126</v>
+      </c>
+      <c r="E208" t="s">
+        <v>119</v>
+      </c>
+      <c r="F208" t="s">
+        <v>120</v>
+      </c>
+      <c r="G208" t="s">
+        <v>135</v>
+      </c>
+      <c r="H208" t="s">
+        <v>136</v>
+      </c>
+      <c r="I208" t="s">
+        <v>63</v>
+      </c>
+      <c r="J208" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="209" x14ac:dyDescent="0.25" spans="1:10">
+      <c r="A209" t="s">
+        <v>105</v>
+      </c>
+      <c r="B209" t="s">
+        <v>106</v>
+      </c>
+      <c r="C209" t="s">
+        <v>125</v>
+      </c>
+      <c r="D209" t="s">
+        <v>126</v>
+      </c>
+      <c r="E209" t="s">
+        <v>121</v>
+      </c>
+      <c r="F209" t="s">
         <v>122</v>
       </c>
-      <c r="D203" t="s">
-        <v>123</v>
-      </c>
-      <c r="E203" t="s">
+      <c r="G209" t="s">
+        <v>135</v>
+      </c>
+      <c r="H209" t="s">
+        <v>136</v>
+      </c>
+      <c r="I209" t="s">
+        <v>49</v>
+      </c>
+      <c r="J209" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="210" x14ac:dyDescent="0.25" spans="1:10">
+      <c r="A210" t="s">
+        <v>105</v>
+      </c>
+      <c r="B210" t="s">
         <v>106</v>
       </c>
-      <c r="F203" t="s">
-        <v>107</v>
-      </c>
-      <c r="G203" t="s">
-        <v>132</v>
-      </c>
-      <c r="H203" t="s">
-        <v>133</v>
-      </c>
-      <c r="I203" t="s">
-        <v>46</v>
-      </c>
-      <c r="J203" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="204" x14ac:dyDescent="0.25" spans="1:9">
-      <c r="A204" t="s">
-        <v>104</v>
-      </c>
-      <c r="B204" t="s">
+      <c r="C210" t="s">
+        <v>125</v>
+      </c>
+      <c r="D210" t="s">
+        <v>126</v>
+      </c>
+      <c r="E210" t="s">
+        <v>117</v>
+      </c>
+      <c r="F210" t="s">
+        <v>118</v>
+      </c>
+      <c r="G210" t="s">
+        <v>135</v>
+      </c>
+      <c r="H210" t="s">
+        <v>136</v>
+      </c>
+      <c r="I210" t="s">
+        <v>40</v>
+      </c>
+      <c r="J210" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="211" x14ac:dyDescent="0.25" spans="1:10">
+      <c r="A211" t="s">
         <v>105</v>
       </c>
-      <c r="C204" t="s">
-        <v>112</v>
-      </c>
-      <c r="D204" t="s">
-        <v>113</v>
-      </c>
-      <c r="E204" t="s">
-        <v>124</v>
-      </c>
-      <c r="F204" t="s">
+      <c r="B211" t="s">
+        <v>106</v>
+      </c>
+      <c r="C211" t="s">
         <v>125</v>
       </c>
-      <c r="G204" t="s">
-        <v>134</v>
-      </c>
-      <c r="I204" t="s">
-        <v>47</v>
-      </c>
-      <c r="J204" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="205" x14ac:dyDescent="0.25" spans="1:9">
-      <c r="A205" t="s">
-        <v>104</v>
-      </c>
-      <c r="B205" t="s">
-        <v>105</v>
-      </c>
-      <c r="C205" t="s">
-        <v>112</v>
-      </c>
-      <c r="D205" t="s">
-        <v>113</v>
-      </c>
-      <c r="E205" t="s">
-        <v>106</v>
-      </c>
-      <c r="F205" t="s">
-        <v>107</v>
-      </c>
-      <c r="G205" t="s">
-        <v>134</v>
-      </c>
-      <c r="I205" t="s">
-        <v>52</v>
-      </c>
-      <c r="J205" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="206" x14ac:dyDescent="0.25" spans="1:9">
-      <c r="A206" t="s">
-        <v>104</v>
-      </c>
-      <c r="B206" t="s">
-        <v>105</v>
-      </c>
-      <c r="C206" t="s">
-        <v>112</v>
-      </c>
-      <c r="D206" t="s">
-        <v>113</v>
-      </c>
-      <c r="E206" t="s">
+      <c r="D211" t="s">
+        <v>126</v>
+      </c>
+      <c r="E211" t="s">
+        <v>115</v>
+      </c>
+      <c r="F211" t="s">
         <v>116</v>
       </c>
-      <c r="F206" t="s">
-        <v>117</v>
-      </c>
-      <c r="G206" t="s">
-        <v>134</v>
-      </c>
-      <c r="I206" t="s">
-        <v>46</v>
-      </c>
-      <c r="J206" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="207" x14ac:dyDescent="0.25" spans="1:9">
-      <c r="A207" t="s">
-        <v>104</v>
-      </c>
-      <c r="B207" t="s">
-        <v>105</v>
-      </c>
-      <c r="C207" t="s">
-        <v>112</v>
-      </c>
-      <c r="D207" t="s">
-        <v>113</v>
-      </c>
-      <c r="E207" t="s">
-        <v>108</v>
-      </c>
-      <c r="F207" t="s">
-        <v>109</v>
-      </c>
-      <c r="G207" t="s">
-        <v>134</v>
-      </c>
-      <c r="I207" t="s">
-        <v>51</v>
-      </c>
-      <c r="J207" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="208" x14ac:dyDescent="0.25" spans="1:9">
-      <c r="A208" t="s">
-        <v>104</v>
-      </c>
-      <c r="B208" t="s">
-        <v>105</v>
-      </c>
-      <c r="C208" t="s">
-        <v>112</v>
-      </c>
-      <c r="D208" t="s">
-        <v>113</v>
-      </c>
-      <c r="E208" t="s">
-        <v>114</v>
-      </c>
-      <c r="F208" t="s">
-        <v>115</v>
-      </c>
-      <c r="G208" t="s">
-        <v>134</v>
-      </c>
-      <c r="I208" t="s">
-        <v>57</v>
-      </c>
-      <c r="J208" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="209" x14ac:dyDescent="0.25" spans="1:9">
-      <c r="A209" t="s">
-        <v>104</v>
-      </c>
-      <c r="B209" t="s">
-        <v>105</v>
-      </c>
-      <c r="C209" t="s">
-        <v>112</v>
-      </c>
-      <c r="D209" t="s">
-        <v>113</v>
-      </c>
-      <c r="E209" t="s">
-        <v>122</v>
-      </c>
-      <c r="F209" t="s">
-        <v>123</v>
-      </c>
-      <c r="G209" t="s">
-        <v>134</v>
-      </c>
-      <c r="I209" t="s">
-        <v>25</v>
-      </c>
-      <c r="J209" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="210" x14ac:dyDescent="0.25" spans="1:9">
-      <c r="A210" t="s">
-        <v>104</v>
-      </c>
-      <c r="B210" t="s">
-        <v>105</v>
-      </c>
-      <c r="C210" t="s">
-        <v>112</v>
-      </c>
-      <c r="D210" t="s">
-        <v>113</v>
-      </c>
-      <c r="E210" t="s">
-        <v>120</v>
-      </c>
-      <c r="F210" t="s">
-        <v>121</v>
-      </c>
-      <c r="G210" t="s">
-        <v>134</v>
-      </c>
-      <c r="I210" t="s">
+      <c r="G211" t="s">
+        <v>135</v>
+      </c>
+      <c r="H211" t="s">
+        <v>136</v>
+      </c>
+      <c r="I211" t="s">
         <v>37</v>
-      </c>
-      <c r="J210" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="211" x14ac:dyDescent="0.25" spans="1:9">
-      <c r="A211" t="s">
-        <v>104</v>
-      </c>
-      <c r="B211" t="s">
-        <v>105</v>
-      </c>
-      <c r="C211" t="s">
-        <v>112</v>
-      </c>
-      <c r="D211" t="s">
-        <v>113</v>
-      </c>
-      <c r="E211" t="s">
-        <v>118</v>
-      </c>
-      <c r="F211" t="s">
-        <v>119</v>
-      </c>
-      <c r="G211" t="s">
-        <v>134</v>
-      </c>
-      <c r="I211" t="s">
-        <v>53</v>
       </c>
       <c r="J211" t="s">
         <v>19</v>
@@ -7074,31 +7101,31 @@
     </row>
     <row r="212" x14ac:dyDescent="0.25" spans="1:10">
       <c r="A212" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B212" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C212" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D212" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E212" t="s">
-        <v>106</v>
+        <v>125</v>
       </c>
       <c r="F212" t="s">
-        <v>107</v>
+        <v>126</v>
       </c>
       <c r="G212" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="H212" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="I212" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="J212" t="s">
         <v>19</v>
@@ -7106,31 +7133,31 @@
     </row>
     <row r="213" x14ac:dyDescent="0.25" spans="1:10">
       <c r="A213" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B213" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C213" t="s">
+        <v>121</v>
+      </c>
+      <c r="D213" t="s">
+        <v>122</v>
+      </c>
+      <c r="E213" t="s">
+        <v>119</v>
+      </c>
+      <c r="F213" t="s">
         <v>120</v>
       </c>
-      <c r="D213" t="s">
-        <v>121</v>
-      </c>
-      <c r="E213" t="s">
-        <v>108</v>
-      </c>
-      <c r="F213" t="s">
-        <v>109</v>
-      </c>
       <c r="G213" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="H213" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="I213" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="J213" t="s">
         <v>19</v>
@@ -7138,31 +7165,31 @@
     </row>
     <row r="214" x14ac:dyDescent="0.25" spans="1:10">
       <c r="A214" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B214" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C214" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D214" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E214" t="s">
+        <v>115</v>
+      </c>
+      <c r="F214" t="s">
         <v>116</v>
       </c>
-      <c r="F214" t="s">
-        <v>117</v>
-      </c>
       <c r="G214" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="H214" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="I214" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="J214" t="s">
         <v>19</v>
@@ -7170,31 +7197,31 @@
     </row>
     <row r="215" x14ac:dyDescent="0.25" spans="1:10">
       <c r="A215" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B215" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C215" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D215" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E215" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="F215" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="G215" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="H215" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="I215" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="J215" t="s">
         <v>19</v>
@@ -7202,31 +7229,31 @@
     </row>
     <row r="216" x14ac:dyDescent="0.25" spans="1:10">
       <c r="A216" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B216" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C216" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D216" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E216" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="F216" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="G216" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="H216" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="I216" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="J216" t="s">
         <v>19</v>
@@ -7234,31 +7261,31 @@
     </row>
     <row r="217" x14ac:dyDescent="0.25" spans="1:10">
       <c r="A217" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B217" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C217" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D217" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E217" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="F217" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="G217" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="H217" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="I217" t="s">
-        <v>28</v>
+        <v>56</v>
       </c>
       <c r="J217" t="s">
         <v>19</v>
@@ -7266,31 +7293,31 @@
     </row>
     <row r="218" x14ac:dyDescent="0.25" spans="1:10">
       <c r="A218" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B218" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C218" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D218" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E218" t="s">
+        <v>123</v>
+      </c>
+      <c r="F218" t="s">
         <v>124</v>
       </c>
-      <c r="F218" t="s">
-        <v>125</v>
-      </c>
       <c r="G218" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="H218" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="I218" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="J218" t="s">
         <v>19</v>
@@ -7298,31 +7325,31 @@
     </row>
     <row r="219" x14ac:dyDescent="0.25" spans="1:10">
       <c r="A219" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B219" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C219" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D219" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E219" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="F219" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="G219" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="H219" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="I219" t="s">
-        <v>58</v>
+        <v>31</v>
       </c>
       <c r="J219" t="s">
         <v>19</v>
@@ -7330,31 +7357,31 @@
     </row>
     <row r="220" x14ac:dyDescent="0.25" spans="1:10">
       <c r="A220" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B220" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C220" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="D220" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="E220" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="F220" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="G220" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="H220" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="I220" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="J220" t="s">
         <v>19</v>
@@ -7362,31 +7389,31 @@
     </row>
     <row r="221" x14ac:dyDescent="0.25" spans="1:10">
       <c r="A221" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B221" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C221" t="s">
+        <v>119</v>
+      </c>
+      <c r="D221" t="s">
+        <v>120</v>
+      </c>
+      <c r="E221" t="s">
+        <v>113</v>
+      </c>
+      <c r="F221" t="s">
         <v>114</v>
       </c>
-      <c r="D221" t="s">
-        <v>115</v>
-      </c>
-      <c r="E221" t="s">
-        <v>118</v>
-      </c>
-      <c r="F221" t="s">
-        <v>119</v>
-      </c>
       <c r="G221" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="H221" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="I221" t="s">
-        <v>22</v>
+        <v>57</v>
       </c>
       <c r="J221" t="s">
         <v>19</v>
@@ -7394,31 +7421,31 @@
     </row>
     <row r="222" x14ac:dyDescent="0.25" spans="1:10">
       <c r="A222" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B222" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C222" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="D222" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="E222" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="F222" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="G222" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="H222" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="I222" t="s">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="J222" t="s">
         <v>19</v>
@@ -7426,31 +7453,31 @@
     </row>
     <row r="223" x14ac:dyDescent="0.25" spans="1:10">
       <c r="A223" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B223" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C223" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="D223" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="E223" t="s">
-        <v>112</v>
+        <v>125</v>
       </c>
       <c r="F223" t="s">
-        <v>113</v>
+        <v>126</v>
       </c>
       <c r="G223" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="H223" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="I223" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="J223" t="s">
         <v>19</v>
@@ -7458,31 +7485,31 @@
     </row>
     <row r="224" x14ac:dyDescent="0.25" spans="1:10">
       <c r="A224" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B224" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C224" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="D224" t="s">
+        <v>120</v>
+      </c>
+      <c r="E224" t="s">
         <v>115</v>
       </c>
-      <c r="E224" t="s">
-        <v>106</v>
-      </c>
       <c r="F224" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="G224" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="H224" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="I224" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="J224" t="s">
         <v>19</v>
@@ -7490,31 +7517,31 @@
     </row>
     <row r="225" x14ac:dyDescent="0.25" spans="1:10">
       <c r="A225" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B225" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C225" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="D225" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="E225" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="F225" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="G225" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="H225" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="I225" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="J225" t="s">
         <v>19</v>
@@ -7522,31 +7549,31 @@
     </row>
     <row r="226" x14ac:dyDescent="0.25" spans="1:10">
       <c r="A226" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B226" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C226" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="D226" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="E226" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="F226" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="G226" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="H226" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="I226" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="J226" t="s">
         <v>19</v>
@@ -7554,287 +7581,263 @@
     </row>
     <row r="227" x14ac:dyDescent="0.25" spans="1:10">
       <c r="A227" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B227" t="s">
+        <v>106</v>
+      </c>
+      <c r="C227" t="s">
+        <v>119</v>
+      </c>
+      <c r="D227" t="s">
+        <v>120</v>
+      </c>
+      <c r="E227" t="s">
+        <v>121</v>
+      </c>
+      <c r="F227" t="s">
+        <v>122</v>
+      </c>
+      <c r="G227" t="s">
+        <v>139</v>
+      </c>
+      <c r="H227" t="s">
+        <v>140</v>
+      </c>
+      <c r="I227" t="s">
+        <v>52</v>
+      </c>
+      <c r="J227" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="228" x14ac:dyDescent="0.25" spans="1:9">
+      <c r="A228" t="s">
         <v>105</v>
       </c>
-      <c r="C227" t="s">
+      <c r="B228" t="s">
+        <v>106</v>
+      </c>
+      <c r="C228" t="s">
+        <v>123</v>
+      </c>
+      <c r="D228" t="s">
+        <v>124</v>
+      </c>
+      <c r="E228" t="s">
+        <v>119</v>
+      </c>
+      <c r="F228" t="s">
+        <v>120</v>
+      </c>
+      <c r="G228" t="s">
+        <v>141</v>
+      </c>
+      <c r="I228" t="s">
+        <v>47</v>
+      </c>
+      <c r="J228" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="229" x14ac:dyDescent="0.25" spans="1:9">
+      <c r="A229" t="s">
+        <v>105</v>
+      </c>
+      <c r="B229" t="s">
+        <v>106</v>
+      </c>
+      <c r="C229" t="s">
+        <v>123</v>
+      </c>
+      <c r="D229" t="s">
+        <v>124</v>
+      </c>
+      <c r="E229" t="s">
+        <v>117</v>
+      </c>
+      <c r="F229" t="s">
+        <v>118</v>
+      </c>
+      <c r="G229" t="s">
+        <v>141</v>
+      </c>
+      <c r="I229" t="s">
+        <v>49</v>
+      </c>
+      <c r="J229" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="230" x14ac:dyDescent="0.25" spans="1:9">
+      <c r="A230" t="s">
+        <v>105</v>
+      </c>
+      <c r="B230" t="s">
+        <v>106</v>
+      </c>
+      <c r="C230" t="s">
+        <v>123</v>
+      </c>
+      <c r="D230" t="s">
+        <v>124</v>
+      </c>
+      <c r="E230" t="s">
+        <v>121</v>
+      </c>
+      <c r="F230" t="s">
+        <v>122</v>
+      </c>
+      <c r="G230" t="s">
+        <v>141</v>
+      </c>
+      <c r="I230" t="s">
+        <v>37</v>
+      </c>
+      <c r="J230" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="231" x14ac:dyDescent="0.25" spans="1:9">
+      <c r="A231" t="s">
+        <v>105</v>
+      </c>
+      <c r="B231" t="s">
+        <v>106</v>
+      </c>
+      <c r="C231" t="s">
+        <v>123</v>
+      </c>
+      <c r="D231" t="s">
+        <v>124</v>
+      </c>
+      <c r="E231" t="s">
+        <v>109</v>
+      </c>
+      <c r="F231" t="s">
+        <v>110</v>
+      </c>
+      <c r="G231" t="s">
+        <v>141</v>
+      </c>
+      <c r="I231" t="s">
+        <v>46</v>
+      </c>
+      <c r="J231" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="232" x14ac:dyDescent="0.25" spans="1:9">
+      <c r="A232" t="s">
+        <v>105</v>
+      </c>
+      <c r="B232" t="s">
+        <v>106</v>
+      </c>
+      <c r="C232" t="s">
+        <v>123</v>
+      </c>
+      <c r="D232" t="s">
+        <v>124</v>
+      </c>
+      <c r="E232" t="s">
+        <v>107</v>
+      </c>
+      <c r="F232" t="s">
+        <v>108</v>
+      </c>
+      <c r="G232" t="s">
+        <v>141</v>
+      </c>
+      <c r="I232" t="s">
+        <v>18</v>
+      </c>
+      <c r="J232" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="233" x14ac:dyDescent="0.25" spans="1:9">
+      <c r="A233" t="s">
+        <v>105</v>
+      </c>
+      <c r="B233" t="s">
+        <v>106</v>
+      </c>
+      <c r="C233" t="s">
+        <v>123</v>
+      </c>
+      <c r="D233" t="s">
+        <v>124</v>
+      </c>
+      <c r="E233" t="s">
+        <v>115</v>
+      </c>
+      <c r="F233" t="s">
+        <v>116</v>
+      </c>
+      <c r="G233" t="s">
+        <v>141</v>
+      </c>
+      <c r="I233" t="s">
+        <v>60</v>
+      </c>
+      <c r="J233" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="234" x14ac:dyDescent="0.25" spans="1:9">
+      <c r="A234" t="s">
+        <v>105</v>
+      </c>
+      <c r="B234" t="s">
+        <v>106</v>
+      </c>
+      <c r="C234" t="s">
+        <v>123</v>
+      </c>
+      <c r="D234" t="s">
+        <v>124</v>
+      </c>
+      <c r="E234" t="s">
+        <v>113</v>
+      </c>
+      <c r="F234" t="s">
         <v>114</v>
       </c>
-      <c r="D227" t="s">
-        <v>115</v>
-      </c>
-      <c r="E227" t="s">
+      <c r="G234" t="s">
+        <v>141</v>
+      </c>
+      <c r="I234" t="s">
+        <v>34</v>
+      </c>
+      <c r="J234" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="235" x14ac:dyDescent="0.25" spans="1:9">
+      <c r="A235" t="s">
+        <v>105</v>
+      </c>
+      <c r="B235" t="s">
+        <v>106</v>
+      </c>
+      <c r="C235" t="s">
+        <v>123</v>
+      </c>
+      <c r="D235" t="s">
         <v>124</v>
       </c>
-      <c r="F227" t="s">
+      <c r="E235" t="s">
         <v>125</v>
       </c>
-      <c r="G227" t="s">
-        <v>137</v>
-      </c>
-      <c r="H227" t="s">
-        <v>138</v>
-      </c>
-      <c r="I227" t="s">
-        <v>34</v>
-      </c>
-      <c r="J227" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="228" x14ac:dyDescent="0.25" spans="1:10">
-      <c r="A228" t="s">
-        <v>104</v>
-      </c>
-      <c r="B228" t="s">
-        <v>105</v>
-      </c>
-      <c r="C228" t="s">
-        <v>118</v>
-      </c>
-      <c r="D228" t="s">
-        <v>119</v>
-      </c>
-      <c r="E228" t="s">
-        <v>122</v>
-      </c>
-      <c r="F228" t="s">
-        <v>123</v>
-      </c>
-      <c r="G228" t="s">
-        <v>139</v>
-      </c>
-      <c r="H228" t="s">
-        <v>140</v>
-      </c>
-      <c r="I228" t="s">
-        <v>31</v>
-      </c>
-      <c r="J228" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="229" x14ac:dyDescent="0.25" spans="1:10">
-      <c r="A229" t="s">
-        <v>104</v>
-      </c>
-      <c r="B229" t="s">
-        <v>105</v>
-      </c>
-      <c r="C229" t="s">
-        <v>118</v>
-      </c>
-      <c r="D229" t="s">
-        <v>119</v>
-      </c>
-      <c r="E229" t="s">
-        <v>108</v>
-      </c>
-      <c r="F229" t="s">
-        <v>109</v>
-      </c>
-      <c r="G229" t="s">
-        <v>139</v>
-      </c>
-      <c r="H229" t="s">
-        <v>140</v>
-      </c>
-      <c r="I229" t="s">
-        <v>43</v>
-      </c>
-      <c r="J229" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="230" x14ac:dyDescent="0.25" spans="1:10">
-      <c r="A230" t="s">
-        <v>104</v>
-      </c>
-      <c r="B230" t="s">
-        <v>105</v>
-      </c>
-      <c r="C230" t="s">
-        <v>118</v>
-      </c>
-      <c r="D230" t="s">
-        <v>119</v>
-      </c>
-      <c r="E230" t="s">
-        <v>116</v>
-      </c>
-      <c r="F230" t="s">
-        <v>117</v>
-      </c>
-      <c r="G230" t="s">
-        <v>139</v>
-      </c>
-      <c r="H230" t="s">
-        <v>140</v>
-      </c>
-      <c r="I230" t="s">
-        <v>18</v>
-      </c>
-      <c r="J230" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="231" x14ac:dyDescent="0.25" spans="1:10">
-      <c r="A231" t="s">
-        <v>104</v>
-      </c>
-      <c r="B231" t="s">
-        <v>105</v>
-      </c>
-      <c r="C231" t="s">
-        <v>118</v>
-      </c>
-      <c r="D231" t="s">
-        <v>119</v>
-      </c>
-      <c r="E231" t="s">
-        <v>106</v>
-      </c>
-      <c r="F231" t="s">
-        <v>107</v>
-      </c>
-      <c r="G231" t="s">
-        <v>139</v>
-      </c>
-      <c r="H231" t="s">
-        <v>140</v>
-      </c>
-      <c r="I231" t="s">
-        <v>58</v>
-      </c>
-      <c r="J231" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="232" x14ac:dyDescent="0.25" spans="1:10">
-      <c r="A232" t="s">
-        <v>104</v>
-      </c>
-      <c r="B232" t="s">
-        <v>105</v>
-      </c>
-      <c r="C232" t="s">
-        <v>118</v>
-      </c>
-      <c r="D232" t="s">
-        <v>119</v>
-      </c>
-      <c r="E232" t="s">
-        <v>112</v>
-      </c>
-      <c r="F232" t="s">
-        <v>113</v>
-      </c>
-      <c r="G232" t="s">
-        <v>139</v>
-      </c>
-      <c r="H232" t="s">
-        <v>140</v>
-      </c>
-      <c r="I232" t="s">
-        <v>34</v>
-      </c>
-      <c r="J232" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="233" x14ac:dyDescent="0.25" spans="1:10">
-      <c r="A233" t="s">
-        <v>104</v>
-      </c>
-      <c r="B233" t="s">
-        <v>105</v>
-      </c>
-      <c r="C233" t="s">
-        <v>118</v>
-      </c>
-      <c r="D233" t="s">
-        <v>119</v>
-      </c>
-      <c r="E233" t="s">
-        <v>114</v>
-      </c>
-      <c r="F233" t="s">
-        <v>115</v>
-      </c>
-      <c r="G233" t="s">
-        <v>139</v>
-      </c>
-      <c r="H233" t="s">
-        <v>140</v>
-      </c>
-      <c r="I233" t="s">
-        <v>28</v>
-      </c>
-      <c r="J233" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="234" x14ac:dyDescent="0.25" spans="1:10">
-      <c r="A234" t="s">
-        <v>104</v>
-      </c>
-      <c r="B234" t="s">
-        <v>105</v>
-      </c>
-      <c r="C234" t="s">
-        <v>118</v>
-      </c>
-      <c r="D234" t="s">
-        <v>119</v>
-      </c>
-      <c r="E234" t="s">
-        <v>124</v>
-      </c>
-      <c r="F234" t="s">
-        <v>125</v>
-      </c>
-      <c r="G234" t="s">
-        <v>139</v>
-      </c>
-      <c r="H234" t="s">
-        <v>140</v>
-      </c>
-      <c r="I234" t="s">
-        <v>25</v>
-      </c>
-      <c r="J234" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="235" x14ac:dyDescent="0.25" spans="1:10">
-      <c r="A235" t="s">
-        <v>104</v>
-      </c>
-      <c r="B235" t="s">
-        <v>105</v>
-      </c>
-      <c r="C235" t="s">
-        <v>118</v>
-      </c>
-      <c r="D235" t="s">
-        <v>119</v>
-      </c>
-      <c r="E235" t="s">
-        <v>120</v>
-      </c>
       <c r="F235" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="G235" t="s">
-        <v>139</v>
-      </c>
-      <c r="H235" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="I235" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="J235" t="s">
         <v>19</v>
